--- a/tabular/ncbi-refseqs/ifnl-side-data.xlsx
+++ b/tabular/ncbi-refseqs/ifnl-side-data.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/ncbi-refseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4760754-DBCD-AD41-B94E-0D9EC0A66CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E919238-C0D9-264C-8807-C14608146C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19800" yWindow="700" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="592">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1060,9 +1068,6 @@
     <t>psi</t>
   </si>
   <si>
-    <t>REF_IFNLb_Mammal_2_MASTER</t>
-  </si>
-  <si>
     <t>REF_IFNLb_Mammal_1_rodent</t>
   </si>
   <si>
@@ -1799,6 +1804,12 @@
   </si>
   <si>
     <t>canonical</t>
+  </si>
+  <si>
+    <t>REF_IFNLb_Mammal_B2_1</t>
+  </si>
+  <si>
+    <t>REF_IFNLb_Mammal_B2_2_MASTER</t>
   </si>
 </sst>
 </file>
@@ -3517,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E115" sqref="A1:Q204"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3546,52 +3557,52 @@
         <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P1" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>360</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3599,7 +3610,7 @@
         <v>260</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>296</v>
@@ -3609,7 +3620,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>325</v>
@@ -3641,20 +3652,20 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>325</v>
@@ -3682,20 +3693,20 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>325</v>
@@ -3726,17 +3737,17 @@
         <v>266</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>325</v>
@@ -3764,10 +3775,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>179</v>
@@ -3777,7 +3788,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>325</v>
@@ -3805,10 +3816,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>179</v>
@@ -3818,7 +3829,7 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>325</v>
@@ -3849,7 +3860,7 @@
         <v>265</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>319</v>
@@ -3859,7 +3870,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>325</v>
@@ -3892,7 +3903,7 @@
         <v>255</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>304</v>
@@ -3902,7 +3913,7 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>325</v>
@@ -3935,7 +3946,7 @@
         <v>257</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>181</v>
@@ -3945,7 +3956,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>325</v>
@@ -3978,7 +3989,7 @@
         <v>270</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>181</v>
@@ -3988,7 +3999,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>325</v>
@@ -4016,10 +4027,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>174</v>
@@ -4029,7 +4040,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>325</v>
@@ -4057,22 +4068,22 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>325</v>
@@ -4103,7 +4114,7 @@
         <v>271</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>186</v>
@@ -4113,7 +4124,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>325</v>
@@ -4141,22 +4152,22 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>325</v>
@@ -4177,29 +4188,29 @@
         <v>100</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>325</v>
@@ -4217,32 +4228,32 @@
         <v>92</v>
       </c>
       <c r="N16" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>325</v>
@@ -4263,27 +4274,27 @@
         <v>138</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>325</v>
@@ -4301,32 +4312,32 @@
         <v>92</v>
       </c>
       <c r="N18" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>541</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>542</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>325</v>
@@ -4344,32 +4355,32 @@
         <v>131</v>
       </c>
       <c r="N19" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>544</v>
       </c>
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>325</v>
@@ -4390,7 +4401,7 @@
         <v>78</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
@@ -4400,7 +4411,7 @@
         <v>264</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>300</v>
@@ -4410,7 +4421,7 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>325</v>
@@ -4440,10 +4451,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>300</v>
@@ -4452,10 +4463,10 @@
         <v>300</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>325</v>
@@ -4486,7 +4497,7 @@
         <v>267</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>175</v>
@@ -4496,7 +4507,7 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>325</v>
@@ -4524,10 +4535,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>175</v>
@@ -4536,10 +4547,10 @@
         <v>175</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>325</v>
@@ -4570,7 +4581,7 @@
         <v>256</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>292</v>
@@ -4580,7 +4591,7 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>325</v>
@@ -4613,7 +4624,7 @@
         <v>269</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>292</v>
@@ -4623,7 +4634,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>325</v>
@@ -4654,7 +4665,7 @@
         <v>256</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>292</v>
@@ -4664,7 +4675,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>325</v>
@@ -4692,10 +4703,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>182</v>
@@ -4705,7 +4716,7 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>325</v>
@@ -4733,10 +4744,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>182</v>
@@ -4745,10 +4756,10 @@
         <v>182</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>325</v>
@@ -4779,7 +4790,7 @@
         <v>275</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>307</v>
@@ -4788,10 +4799,10 @@
         <v>307</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>325</v>
@@ -4826,7 +4837,7 @@
         <v>178</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>185</v>
@@ -4836,7 +4847,7 @@
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>325</v>
@@ -4867,7 +4878,7 @@
         <v>273</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>317</v>
@@ -4877,7 +4888,7 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>325</v>
@@ -4909,10 +4920,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>317</v>
@@ -4922,7 +4933,7 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>325</v>
@@ -4950,10 +4961,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>317</v>
@@ -4962,10 +4973,10 @@
         <v>317</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>325</v>
@@ -4996,7 +5007,7 @@
         <v>274</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>305</v>
@@ -5006,7 +5017,7 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>325</v>
@@ -5036,10 +5047,10 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>305</v>
@@ -5049,7 +5060,7 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>325</v>
@@ -5077,22 +5088,22 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>325</v>
@@ -5113,17 +5124,17 @@
         <v>78</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P37" s="38"/>
       <c r="Q37" s="38"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>314</v>
@@ -5132,10 +5143,10 @@
         <v>314</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>325</v>
@@ -5166,7 +5177,7 @@
         <v>263</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>313</v>
@@ -5176,7 +5187,7 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>325</v>
@@ -5206,10 +5217,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>183</v>
@@ -5219,7 +5230,7 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>325</v>
@@ -5247,10 +5258,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>183</v>
@@ -5259,10 +5270,10 @@
         <v>183</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>325</v>
@@ -5290,10 +5301,10 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>205</v>
@@ -5303,7 +5314,7 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>325</v>
@@ -5331,20 +5342,20 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>325</v>
@@ -5362,10 +5373,10 @@
         <v>141</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P43" s="38"/>
       <c r="Q43" s="38"/>
@@ -5375,7 +5386,7 @@
         <v>258</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>184</v>
@@ -5385,7 +5396,7 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>325</v>
@@ -5418,7 +5429,7 @@
         <v>272</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>184</v>
@@ -5428,7 +5439,7 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>325</v>
@@ -5456,20 +5467,20 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>325</v>
@@ -5497,10 +5508,10 @@
     </row>
     <row r="47" spans="1:17" ht="16" customHeight="1">
       <c r="A47" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>173</v>
@@ -5510,7 +5521,7 @@
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>325</v>
@@ -5541,7 +5552,7 @@
         <v>261</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>321</v>
@@ -5551,7 +5562,7 @@
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>325</v>
@@ -5584,7 +5595,7 @@
         <v>277</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>323</v>
@@ -5594,7 +5605,7 @@
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>325</v>
@@ -5626,22 +5637,22 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>325</v>
@@ -5672,7 +5683,7 @@
         <v>254</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>301</v>
@@ -5682,7 +5693,7 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>325</v>
@@ -5715,7 +5726,7 @@
         <v>268</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>176</v>
@@ -5725,7 +5736,7 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>325</v>
@@ -5753,10 +5764,10 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>176</v>
@@ -5766,7 +5777,7 @@
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>325</v>
@@ -5794,22 +5805,22 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>325</v>
@@ -5837,20 +5848,20 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>325</v>
@@ -5878,20 +5889,20 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>325</v>
@@ -5919,22 +5930,22 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>325</v>
@@ -5962,22 +5973,22 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>325</v>
@@ -5998,29 +6009,29 @@
         <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P58" s="38"/>
       <c r="Q58" s="38"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>325</v>
@@ -6041,7 +6052,7 @@
         <v>94</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P59" s="38"/>
       <c r="Q59" s="38"/>
@@ -6051,7 +6062,7 @@
         <v>262</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>299</v>
@@ -6061,7 +6072,7 @@
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>325</v>
@@ -6094,7 +6105,7 @@
         <v>278</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>180</v>
@@ -6104,7 +6115,7 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>325</v>
@@ -6135,7 +6146,7 @@
         <v>276</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>316</v>
@@ -6145,7 +6156,7 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>325</v>
@@ -6178,7 +6189,7 @@
         <v>259</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>177</v>
@@ -6188,7 +6199,7 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>325</v>
@@ -6219,7 +6230,7 @@
         <v>259</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>310</v>
@@ -6229,7 +6240,7 @@
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>325</v>
@@ -6259,22 +6270,22 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>325</v>
@@ -6295,7 +6306,7 @@
         <v>130</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P65" s="38"/>
       <c r="Q65" s="38"/>
@@ -6305,7 +6316,7 @@
         <v>161</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>322</v>
@@ -6315,7 +6326,7 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>325</v>
@@ -6350,7 +6361,7 @@
         <v>281</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>307</v>
@@ -6360,7 +6371,7 @@
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>325</v>
@@ -6394,22 +6405,22 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E68" s="35" t="s">
         <v>334</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>325</v>
@@ -6421,57 +6432,57 @@
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="M68" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="N68" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="M68" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="N68" s="35" t="s">
+      <c r="O68" s="35" t="s">
         <v>551</v>
-      </c>
-      <c r="O68" s="35" t="s">
-        <v>552</v>
       </c>
       <c r="P68" s="40"/>
       <c r="Q68" s="40"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="C69" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="B69" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>418</v>
-      </c>
       <c r="D69" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E69" s="35"/>
       <c r="F69" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>325</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I69" s="36"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M69" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N69" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="O69" s="35" t="s">
         <v>553</v>
-      </c>
-      <c r="O69" s="35" t="s">
-        <v>554</v>
       </c>
       <c r="P69" s="40"/>
       <c r="Q69" s="40"/>
@@ -6481,17 +6492,17 @@
         <v>287</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G70" s="30" t="s">
         <v>325</v>
@@ -6506,10 +6517,10 @@
         <v>92</v>
       </c>
       <c r="M70" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="N70" s="30" t="s">
         <v>555</v>
-      </c>
-      <c r="N70" s="30" t="s">
-        <v>556</v>
       </c>
       <c r="O70" s="30" t="s">
         <v>336</v>
@@ -6522,19 +6533,19 @@
         <v>284</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>330</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>324</v>
@@ -6549,10 +6560,10 @@
         <v>92</v>
       </c>
       <c r="M71" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="N71" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="N71" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>336</v>
@@ -6565,7 +6576,7 @@
         <v>283</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>327</v>
@@ -6577,7 +6588,7 @@
         <v>329</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>324</v>
@@ -6589,16 +6600,16 @@
       <c r="J72" s="9"/>
       <c r="K72" s="12"/>
       <c r="L72" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>335</v>
       </c>
       <c r="N72" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="O72" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="O72" s="9" t="s">
-        <v>559</v>
       </c>
       <c r="P72" s="43"/>
       <c r="Q72" s="43"/>
@@ -6608,19 +6619,19 @@
         <v>288</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>332</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>324</v>
@@ -6632,16 +6643,16 @@
       <c r="J73" s="8"/>
       <c r="K73" s="14"/>
       <c r="L73" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="M73" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="M73" s="8" t="s">
+      <c r="N73" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="N73" s="8" t="s">
+      <c r="O73" s="8" t="s">
         <v>562</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>563</v>
       </c>
       <c r="P73" s="44"/>
       <c r="Q73" s="44"/>
@@ -6651,17 +6662,17 @@
         <v>289</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>324</v>
@@ -6673,16 +6684,16 @@
       <c r="J74" s="8"/>
       <c r="K74" s="14"/>
       <c r="L74" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M74" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="N74" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="N74" s="8" t="s">
+      <c r="O74" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>566</v>
       </c>
       <c r="P74" s="44"/>
       <c r="Q74" s="44"/>
@@ -6692,17 +6703,17 @@
         <v>290</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>324</v>
@@ -6714,16 +6725,16 @@
       <c r="J75" s="8"/>
       <c r="K75" s="14"/>
       <c r="L75" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M75" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="N75" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="N75" s="8" t="s">
+      <c r="O75" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="O75" s="8" t="s">
-        <v>569</v>
       </c>
       <c r="P75" s="44"/>
       <c r="Q75" s="44"/>
@@ -6733,7 +6744,7 @@
         <v>245</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>296</v>
@@ -6743,7 +6754,7 @@
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>324</v>
@@ -6755,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K76" s="15"/>
       <c r="L76" s="4" t="s">
@@ -6782,7 +6793,7 @@
         <v>213</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>297</v>
@@ -6792,7 +6803,7 @@
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>324</v>
@@ -6804,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K77" s="15"/>
       <c r="L77" s="4" t="s">
@@ -6829,7 +6840,7 @@
         <v>250</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>304</v>
@@ -6839,7 +6850,7 @@
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>324</v>
@@ -6851,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K78" s="15"/>
       <c r="L78" s="4" t="s">
@@ -6873,20 +6884,20 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>324</v>
@@ -6898,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4" t="s">
@@ -6908,32 +6919,32 @@
         <v>131</v>
       </c>
       <c r="N79" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="O79" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="46" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>324</v>
@@ -6957,10 +6968,10 @@
         <v>131</v>
       </c>
       <c r="N80" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="O80" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
@@ -6970,17 +6981,17 @@
         <v>212</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>324</v>
@@ -6992,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K81" s="15"/>
       <c r="L81" s="4" t="s">
@@ -7017,7 +7028,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>174</v>
@@ -7027,7 +7038,7 @@
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>324</v>
@@ -7039,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K82" s="15"/>
       <c r="L82" s="4" t="s">
@@ -7061,20 +7072,20 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>324</v>
@@ -7108,20 +7119,20 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>324</v>
@@ -7133,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="4" t="s">
@@ -7143,32 +7154,32 @@
         <v>92</v>
       </c>
       <c r="N84" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="O84" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="O84" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>324</v>
@@ -7180,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4" t="s">
@@ -7193,7 +7204,7 @@
         <v>100</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
@@ -7203,7 +7214,7 @@
         <v>239</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>291</v>
@@ -7213,7 +7224,7 @@
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>324</v>
@@ -7225,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K86" s="15"/>
       <c r="L86" s="4" t="s">
@@ -7252,7 +7263,7 @@
         <v>222</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>291</v>
@@ -7262,7 +7273,7 @@
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>324</v>
@@ -7274,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K87" s="15"/>
       <c r="L87" s="4" t="s">
@@ -7298,20 +7309,20 @@
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>324</v>
@@ -7323,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4" t="s">
@@ -7336,27 +7347,27 @@
         <v>138</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>324</v>
@@ -7368,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4" t="s">
@@ -7378,30 +7389,30 @@
         <v>92</v>
       </c>
       <c r="N89" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="O89" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>324</v>
@@ -7413,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4" t="s">
@@ -7423,30 +7434,30 @@
         <v>92</v>
       </c>
       <c r="N90" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="O90" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="O90" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="46" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>324</v>
@@ -7483,7 +7494,7 @@
         <v>247</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>302</v>
@@ -7493,7 +7504,7 @@
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>324</v>
@@ -7532,7 +7543,7 @@
         <v>216</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>300</v>
@@ -7542,7 +7553,7 @@
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>324</v>
@@ -7554,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K93" s="15"/>
       <c r="L93" s="4" t="s">
@@ -7579,7 +7590,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>295</v>
@@ -7589,7 +7600,7 @@
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>324</v>
@@ -7601,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K94" s="15"/>
       <c r="L94" s="4" t="s">
@@ -7623,10 +7634,10 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>295</v>
@@ -7635,10 +7646,10 @@
         <v>295</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>324</v>
@@ -7650,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4" t="s">
@@ -7673,7 +7684,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>292</v>
@@ -7683,7 +7694,7 @@
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>324</v>
@@ -7695,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="4" t="s">
@@ -7720,7 +7731,7 @@
         <v>211</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>307</v>
@@ -7732,7 +7743,7 @@
         <v>333</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>324</v>
@@ -7744,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K97" s="15"/>
       <c r="L97" s="4" t="s">
@@ -7771,7 +7782,7 @@
         <v>243</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>305</v>
@@ -7781,7 +7792,7 @@
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>324</v>
@@ -7793,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K98" s="15"/>
       <c r="L98" s="4" t="s">
@@ -7818,7 +7829,7 @@
         <v>219</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>303</v>
@@ -7828,7 +7839,7 @@
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>324</v>
@@ -7840,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K99" s="15"/>
       <c r="L99" s="4" t="s">
@@ -7862,22 +7873,22 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>324</v>
@@ -7889,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4" t="s">
@@ -7902,29 +7913,29 @@
         <v>78</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>324</v>
@@ -7936,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4" t="s">
@@ -7946,20 +7957,20 @@
         <v>82</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>314</v>
@@ -7969,7 +7980,7 @@
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>324</v>
@@ -7981,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4" t="s">
@@ -8004,7 +8015,7 @@
         <v>241</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>294</v>
@@ -8013,10 +8024,10 @@
         <v>294</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>324</v>
@@ -8028,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K103" s="15"/>
       <c r="L103" s="4" t="s">
@@ -8050,20 +8061,20 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="D104" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>324</v>
@@ -8075,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K104" s="15"/>
       <c r="L104" s="4" t="s">
@@ -8085,10 +8096,10 @@
         <v>141</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
@@ -8098,7 +8109,7 @@
         <v>208</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>312</v>
@@ -8108,7 +8119,7 @@
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>324</v>
@@ -8120,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K105" s="15"/>
       <c r="L105" s="4" t="s">
@@ -8147,7 +8158,7 @@
         <v>242</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>301</v>
@@ -8157,7 +8168,7 @@
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>324</v>
@@ -8169,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K106" s="15"/>
       <c r="L106" s="4" t="s">
@@ -8194,7 +8205,7 @@
         <v>210</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>306</v>
@@ -8204,7 +8215,7 @@
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>324</v>
@@ -8216,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K107" s="15"/>
       <c r="L107" s="4" t="s">
@@ -8238,22 +8249,22 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>324</v>
@@ -8265,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4" t="s">
@@ -8288,7 +8299,7 @@
         <v>240</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>293</v>
@@ -8298,7 +8309,7 @@
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>324</v>
@@ -8310,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K109" s="15"/>
       <c r="L109" s="4" t="s">
@@ -8335,7 +8346,7 @@
         <v>214</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>298</v>
@@ -8345,7 +8356,7 @@
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>324</v>
@@ -8357,7 +8368,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K110" s="15"/>
       <c r="L110" s="4" t="s">
@@ -8379,10 +8390,10 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>298</v>
@@ -8391,10 +8402,10 @@
         <v>298</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>324</v>
@@ -8406,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4" t="s">
@@ -8429,7 +8440,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>308</v>
@@ -8439,7 +8450,7 @@
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>324</v>
@@ -8451,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K112" s="15"/>
       <c r="L112" s="4" t="s">
@@ -8473,22 +8484,22 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E113" s="4">
         <v>21278349</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>324</v>
@@ -8500,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4" t="s">
@@ -8513,7 +8524,7 @@
         <v>94</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
@@ -8523,7 +8534,7 @@
         <v>215</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>299</v>
@@ -8533,7 +8544,7 @@
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>324</v>
@@ -8545,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K114" s="15"/>
       <c r="L114" s="4" t="s">
@@ -8567,10 +8578,10 @@
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>316</v>
@@ -8580,7 +8591,7 @@
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>324</v>
@@ -8592,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="4" t="s">
@@ -8615,7 +8626,7 @@
         <v>207</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>311</v>
@@ -8625,7 +8636,7 @@
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>324</v>
@@ -8637,7 +8648,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K116" s="15"/>
       <c r="L116" s="4" t="s">
@@ -8662,7 +8673,7 @@
         <v>244</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>310</v>
@@ -8672,7 +8683,7 @@
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>324</v>
@@ -8684,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K117" s="15"/>
       <c r="L117" s="4" t="s">
@@ -8709,7 +8720,7 @@
         <v>280</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>307</v>
@@ -8719,7 +8730,7 @@
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>324</v>
@@ -8756,7 +8767,7 @@
         <v>246</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>296</v>
@@ -8766,7 +8777,7 @@
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>324</v>
@@ -8807,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>9</v>
@@ -8817,7 +8828,7 @@
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>324</v>
@@ -8856,7 +8867,7 @@
         <v>217</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>315</v>
@@ -8866,7 +8877,7 @@
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>324</v>
@@ -8905,7 +8916,7 @@
         <v>218</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>302</v>
@@ -8915,7 +8926,7 @@
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>324</v>
@@ -8954,7 +8965,7 @@
         <v>220</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>303</v>
@@ -8964,7 +8975,7 @@
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>324</v>
@@ -9003,7 +9014,7 @@
         <v>249</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>314</v>
@@ -9013,7 +9024,7 @@
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>324</v>
@@ -9052,7 +9063,7 @@
         <v>71</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>313</v>
@@ -9062,7 +9073,7 @@
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>324</v>
@@ -9101,7 +9112,7 @@
         <v>209</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>312</v>
@@ -9111,7 +9122,7 @@
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>324</v>
@@ -9152,7 +9163,7 @@
         <v>221</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>316</v>
@@ -9164,7 +9175,7 @@
         <v>341</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>324</v>
@@ -9203,7 +9214,7 @@
         <v>252</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>296</v>
@@ -9213,7 +9224,7 @@
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G128" s="10" t="s">
         <v>324</v>
@@ -9252,7 +9263,7 @@
         <v>232</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>297</v>
@@ -9262,7 +9273,7 @@
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G129" s="10" t="s">
         <v>324</v>
@@ -9296,10 +9307,10 @@
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>297</v>
@@ -9309,7 +9320,7 @@
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G130" s="10" t="s">
         <v>324</v>
@@ -9344,7 +9355,7 @@
         <v>236</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>319</v>
@@ -9354,7 +9365,7 @@
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>324</v>
@@ -9391,7 +9402,7 @@
         <v>223</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>304</v>
@@ -9401,7 +9412,7 @@
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G132" s="10" t="s">
         <v>324</v>
@@ -9435,22 +9446,22 @@
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G133" s="10" t="s">
         <v>324</v>
@@ -9485,7 +9496,7 @@
         <v>237</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>320</v>
@@ -9495,7 +9506,7 @@
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G134" s="10" t="s">
         <v>324</v>
@@ -9529,22 +9540,22 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G135" s="10" t="s">
         <v>324</v>
@@ -9569,27 +9580,27 @@
         <v>125</v>
       </c>
       <c r="O135" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P135" s="10"/>
       <c r="Q135" s="10"/>
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G136" s="10" t="s">
         <v>324</v>
@@ -9614,7 +9625,7 @@
         <v>125</v>
       </c>
       <c r="O136" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P136" s="10"/>
       <c r="Q136" s="10"/>
@@ -9624,17 +9635,17 @@
         <v>226</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>309</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>324</v>
@@ -9671,7 +9682,7 @@
         <v>227</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>181</v>
@@ -9681,7 +9692,7 @@
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>324</v>
@@ -9718,7 +9729,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>174</v>
@@ -9728,7 +9739,7 @@
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>324</v>
@@ -9762,10 +9773,10 @@
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>315</v>
@@ -9774,10 +9785,10 @@
         <v>315</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G140" s="10" t="s">
         <v>324</v>
@@ -9809,22 +9820,22 @@
     </row>
     <row r="141" spans="1:17">
       <c r="A141" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>324</v>
@@ -9849,29 +9860,29 @@
         <v>138</v>
       </c>
       <c r="O141" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P141" s="10"/>
       <c r="Q141" s="10"/>
     </row>
     <row r="142" spans="1:17">
       <c r="A142" s="26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G142" s="10" t="s">
         <v>324</v>
@@ -9896,27 +9907,27 @@
         <v>138</v>
       </c>
       <c r="O142" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P142" s="10"/>
       <c r="Q142" s="10"/>
     </row>
     <row r="143" spans="1:17">
       <c r="A143" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>324</v>
@@ -9938,32 +9949,32 @@
         <v>92</v>
       </c>
       <c r="N143" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="O143" s="10" t="s">
         <v>541</v>
-      </c>
-      <c r="O143" s="10" t="s">
-        <v>542</v>
       </c>
       <c r="P143" s="10"/>
       <c r="Q143" s="10"/>
     </row>
     <row r="144" spans="1:17">
       <c r="A144" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>324</v>
@@ -9982,35 +9993,35 @@
         <v>104</v>
       </c>
       <c r="M144" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="N144" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="N144" s="10" t="s">
+      <c r="O144" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="O144" s="10" t="s">
-        <v>578</v>
       </c>
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>324</v>
@@ -10035,7 +10046,7 @@
         <v>78</v>
       </c>
       <c r="O145" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P145" s="10"/>
       <c r="Q145" s="10"/>
@@ -10045,7 +10056,7 @@
         <v>248</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>302</v>
@@ -10055,7 +10066,7 @@
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G146" s="10" t="s">
         <v>324</v>
@@ -10089,10 +10100,10 @@
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>302</v>
@@ -10102,7 +10113,7 @@
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G147" s="10" t="s">
         <v>324</v>
@@ -10137,7 +10148,7 @@
         <v>235</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>300</v>
@@ -10147,7 +10158,7 @@
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>324</v>
@@ -10181,10 +10192,10 @@
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>295</v>
@@ -10194,7 +10205,7 @@
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>324</v>
@@ -10229,7 +10240,7 @@
         <v>5</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C150" s="10" t="s">
         <v>292</v>
@@ -10239,7 +10250,7 @@
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G150" s="10" t="s">
         <v>324</v>
@@ -10273,10 +10284,10 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>182</v>
@@ -10285,10 +10296,10 @@
         <v>182</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G151" s="10" t="s">
         <v>324</v>
@@ -10320,10 +10331,10 @@
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>182</v>
@@ -10332,10 +10343,10 @@
         <v>182</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G152" s="10" t="s">
         <v>324</v>
@@ -10370,7 +10381,7 @@
         <v>326</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>307</v>
@@ -10379,10 +10390,10 @@
         <v>307</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>344</v>
+        <v>590</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G153" s="10" t="s">
         <v>324</v>
@@ -10395,7 +10406,7 @@
       </c>
       <c r="J153" s="10"/>
       <c r="K153" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L153" s="10" t="s">
         <v>77</v>
@@ -10419,7 +10430,7 @@
         <v>225</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>307</v>
@@ -10427,9 +10438,11 @@
       <c r="D154" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E154" s="10"/>
+      <c r="E154" s="10" t="s">
+        <v>591</v>
+      </c>
       <c r="F154" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G154" s="10" t="s">
         <v>324</v>
@@ -10468,7 +10481,7 @@
         <v>251</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>317</v>
@@ -10478,7 +10491,7 @@
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G155" s="10" t="s">
         <v>324</v>
@@ -10517,7 +10530,7 @@
         <v>253</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>305</v>
@@ -10527,7 +10540,7 @@
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G156" s="10" t="s">
         <v>324</v>
@@ -10561,20 +10574,20 @@
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G157" s="10" t="s">
         <v>324</v>
@@ -10599,27 +10612,27 @@
         <v>78</v>
       </c>
       <c r="O157" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P157" s="10"/>
       <c r="Q157" s="10"/>
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G158" s="10" t="s">
         <v>324</v>
@@ -10644,27 +10657,27 @@
         <v>78</v>
       </c>
       <c r="O158" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P158" s="10"/>
       <c r="Q158" s="10"/>
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G159" s="10" t="s">
         <v>324</v>
@@ -10689,29 +10702,29 @@
         <v>78</v>
       </c>
       <c r="O159" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P159" s="10"/>
       <c r="Q159" s="10"/>
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G160" s="10" t="s">
         <v>324</v>
@@ -10730,33 +10743,33 @@
         <v>92</v>
       </c>
       <c r="M160" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="N160" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="N160" s="10" t="s">
+      <c r="O160" s="10" t="s">
         <v>580</v>
-      </c>
-      <c r="O160" s="10" t="s">
-        <v>581</v>
       </c>
       <c r="P160" s="10"/>
       <c r="Q160" s="10"/>
     </row>
     <row r="161" spans="1:17">
       <c r="A161" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>427</v>
-      </c>
       <c r="D161" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G161" s="10" t="s">
         <v>324</v>
@@ -10778,30 +10791,30 @@
         <v>82</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O161" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P161" s="10"/>
       <c r="Q161" s="10"/>
     </row>
     <row r="162" spans="1:17">
       <c r="A162" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G162" s="10" t="s">
         <v>324</v>
@@ -10823,30 +10836,30 @@
         <v>82</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O162" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P162" s="10"/>
       <c r="Q162" s="10"/>
     </row>
     <row r="163" spans="1:17">
       <c r="A163" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G163" s="10" t="s">
         <v>324</v>
@@ -10868,32 +10881,32 @@
         <v>82</v>
       </c>
       <c r="N163" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O163" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P163" s="10"/>
       <c r="Q163" s="10"/>
     </row>
     <row r="164" spans="1:17">
       <c r="A164" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G164" s="10" t="s">
         <v>324</v>
@@ -10915,32 +10928,32 @@
         <v>82</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O164" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P164" s="10"/>
       <c r="Q164" s="10"/>
     </row>
     <row r="165" spans="1:17">
       <c r="A165" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G165" s="10" t="s">
         <v>324</v>
@@ -10962,20 +10975,20 @@
         <v>82</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O165" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
     </row>
     <row r="166" spans="1:17">
       <c r="A166" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>314</v>
@@ -10985,7 +10998,7 @@
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G166" s="10" t="s">
         <v>324</v>
@@ -11017,10 +11030,10 @@
     </row>
     <row r="167" spans="1:17">
       <c r="A167" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C167" s="10" t="s">
         <v>314</v>
@@ -11029,10 +11042,10 @@
         <v>314</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G167" s="10" t="s">
         <v>324</v>
@@ -11064,20 +11077,20 @@
     </row>
     <row r="168" spans="1:17">
       <c r="A168" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G168" s="10" t="s">
         <v>324</v>
@@ -11109,22 +11122,22 @@
     </row>
     <row r="169" spans="1:17">
       <c r="A169" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G169" s="10" t="s">
         <v>324</v>
@@ -11159,7 +11172,7 @@
         <v>234</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>313</v>
@@ -11169,7 +11182,7 @@
       </c>
       <c r="E170" s="10"/>
       <c r="F170" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G170" s="10" t="s">
         <v>324</v>
@@ -11203,10 +11216,10 @@
     </row>
     <row r="171" spans="1:17">
       <c r="A171" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C171" s="10" t="s">
         <v>313</v>
@@ -11215,10 +11228,10 @@
         <v>313</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G171" s="10" t="s">
         <v>324</v>
@@ -11250,10 +11263,10 @@
     </row>
     <row r="172" spans="1:17">
       <c r="A172" s="26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>313</v>
@@ -11262,10 +11275,10 @@
         <v>313</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G172" s="10" t="s">
         <v>324</v>
@@ -11297,10 +11310,10 @@
     </row>
     <row r="173" spans="1:17">
       <c r="A173" s="26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C173" s="10" t="s">
         <v>313</v>
@@ -11309,10 +11322,10 @@
         <v>313</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G173" s="10" t="s">
         <v>324</v>
@@ -11344,10 +11357,10 @@
     </row>
     <row r="174" spans="1:17">
       <c r="A174" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C174" s="10" t="s">
         <v>313</v>
@@ -11356,10 +11369,10 @@
         <v>313</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G174" s="10" t="s">
         <v>324</v>
@@ -11394,7 +11407,7 @@
         <v>230</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C175" s="10" t="s">
         <v>294</v>
@@ -11404,7 +11417,7 @@
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G175" s="10" t="s">
         <v>324</v>
@@ -11441,7 +11454,7 @@
         <v>229</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C176" s="10" t="s">
         <v>184</v>
@@ -11451,7 +11464,7 @@
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G176" s="10" t="s">
         <v>324</v>
@@ -11485,10 +11498,10 @@
     </row>
     <row r="177" spans="1:17">
       <c r="A177" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C177" s="10" t="s">
         <v>184</v>
@@ -11498,7 +11511,7 @@
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G177" s="10" t="s">
         <v>324</v>
@@ -11530,10 +11543,10 @@
     </row>
     <row r="178" spans="1:17">
       <c r="A178" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C178" s="10" t="s">
         <v>184</v>
@@ -11543,7 +11556,7 @@
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G178" s="10" t="s">
         <v>324</v>
@@ -11575,20 +11588,20 @@
     </row>
     <row r="179" spans="1:17">
       <c r="A179" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>324</v>
@@ -11623,7 +11636,7 @@
         <v>224</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C180" s="10" t="s">
         <v>306</v>
@@ -11633,7 +11646,7 @@
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>324</v>
@@ -11667,22 +11680,22 @@
     </row>
     <row r="181" spans="1:17">
       <c r="A181" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>324</v>
@@ -11714,22 +11727,22 @@
     </row>
     <row r="182" spans="1:17">
       <c r="A182" s="26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G182" s="10" t="s">
         <v>324</v>
@@ -11764,7 +11777,7 @@
         <v>228</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C183" s="10" t="s">
         <v>318</v>
@@ -11774,7 +11787,7 @@
       </c>
       <c r="E183" s="10"/>
       <c r="F183" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G183" s="10" t="s">
         <v>324</v>
@@ -11808,10 +11821,10 @@
     </row>
     <row r="184" spans="1:17">
       <c r="A184" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C184" s="10" t="s">
         <v>298</v>
@@ -11820,10 +11833,10 @@
         <v>298</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G184" s="10" t="s">
         <v>324</v>
@@ -11855,10 +11868,10 @@
     </row>
     <row r="185" spans="1:17">
       <c r="A185" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C185" s="10" t="s">
         <v>298</v>
@@ -11867,10 +11880,10 @@
         <v>298</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G185" s="10" t="s">
         <v>324</v>
@@ -11902,10 +11915,10 @@
     </row>
     <row r="186" spans="1:17">
       <c r="A186" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C186" s="10" t="s">
         <v>298</v>
@@ -11914,10 +11927,10 @@
         <v>298</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G186" s="10" t="s">
         <v>324</v>
@@ -11949,10 +11962,10 @@
     </row>
     <row r="187" spans="1:17">
       <c r="A187" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C187" s="10" t="s">
         <v>298</v>
@@ -11961,10 +11974,10 @@
         <v>298</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G187" s="10" t="s">
         <v>324</v>
@@ -11996,20 +12009,20 @@
     </row>
     <row r="188" spans="1:17">
       <c r="A188" s="26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G188" s="10" t="s">
         <v>324</v>
@@ -12034,27 +12047,27 @@
         <v>94</v>
       </c>
       <c r="O188" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P188" s="10"/>
       <c r="Q188" s="10"/>
     </row>
     <row r="189" spans="1:17">
       <c r="A189" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G189" s="10" t="s">
         <v>324</v>
@@ -12079,29 +12092,29 @@
         <v>94</v>
       </c>
       <c r="O189" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P189" s="10"/>
       <c r="Q189" s="10"/>
     </row>
     <row r="190" spans="1:17">
       <c r="A190" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G190" s="10" t="s">
         <v>324</v>
@@ -12126,29 +12139,29 @@
         <v>94</v>
       </c>
       <c r="O190" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P190" s="10"/>
       <c r="Q190" s="10"/>
     </row>
     <row r="191" spans="1:17">
       <c r="A191" s="26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G191" s="10" t="s">
         <v>324</v>
@@ -12173,7 +12186,7 @@
         <v>94</v>
       </c>
       <c r="O191" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P191" s="10"/>
       <c r="Q191" s="10"/>
@@ -12183,7 +12196,7 @@
         <v>233</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C192" s="10" t="s">
         <v>299</v>
@@ -12193,7 +12206,7 @@
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G192" s="10" t="s">
         <v>324</v>
@@ -12227,10 +12240,10 @@
     </row>
     <row r="193" spans="1:17">
       <c r="A193" s="26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C193" s="10" t="s">
         <v>299</v>
@@ -12239,10 +12252,10 @@
         <v>299</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G193" s="10" t="s">
         <v>324</v>
@@ -12274,10 +12287,10 @@
     </row>
     <row r="194" spans="1:17">
       <c r="A194" s="26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C194" s="10" t="s">
         <v>299</v>
@@ -12286,10 +12299,10 @@
         <v>299</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G194" s="10" t="s">
         <v>324</v>
@@ -12321,22 +12334,22 @@
     </row>
     <row r="195" spans="1:17">
       <c r="A195" s="26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F195" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G195" s="10" t="s">
         <v>324</v>
@@ -12355,23 +12368,23 @@
         <v>92</v>
       </c>
       <c r="M195" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="N195" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="N195" s="10" t="s">
+      <c r="O195" s="10" t="s">
         <v>583</v>
-      </c>
-      <c r="O195" s="10" t="s">
-        <v>584</v>
       </c>
       <c r="P195" s="10"/>
       <c r="Q195" s="10"/>
     </row>
     <row r="196" spans="1:17">
       <c r="A196" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C196" s="10" t="s">
         <v>180</v>
@@ -12381,7 +12394,7 @@
       </c>
       <c r="E196" s="10"/>
       <c r="F196" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G196" s="10" t="s">
         <v>324</v>
@@ -12413,10 +12426,10 @@
     </row>
     <row r="197" spans="1:17">
       <c r="A197" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C197" s="10" t="s">
         <v>180</v>
@@ -12426,7 +12439,7 @@
       </c>
       <c r="E197" s="10"/>
       <c r="F197" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G197" s="10" t="s">
         <v>324</v>
@@ -12461,7 +12474,7 @@
         <v>238</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C198" s="10" t="s">
         <v>316</v>
@@ -12471,7 +12484,7 @@
       </c>
       <c r="E198" s="10"/>
       <c r="F198" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G198" s="10" t="s">
         <v>324</v>
@@ -12508,7 +12521,7 @@
         <v>231</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C199" s="10" t="s">
         <v>310</v>
@@ -12518,7 +12531,7 @@
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G199" s="10" t="s">
         <v>324</v>
@@ -12552,20 +12565,20 @@
     </row>
     <row r="200" spans="1:17">
       <c r="A200" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="D200" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>324</v>
@@ -12574,7 +12587,7 @@
         <v>339</v>
       </c>
       <c r="I200" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J200" s="4"/>
       <c r="K200" s="15"/>
@@ -12585,13 +12598,13 @@
         <v>154</v>
       </c>
       <c r="N200" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="O200" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O200" s="4" t="s">
+      <c r="P200" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="P200" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="Q200" s="4"/>
     </row>
@@ -12600,7 +12613,7 @@
         <v>206</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>322</v>
@@ -12609,10 +12622,10 @@
         <v>322</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>324</v>
@@ -12621,7 +12634,7 @@
         <v>339</v>
       </c>
       <c r="I201" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J201" s="4"/>
       <c r="K201" s="15"/>
@@ -12649,7 +12662,7 @@
         <v>169</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>323</v>
@@ -12659,7 +12672,7 @@
       </c>
       <c r="E202" s="4"/>
       <c r="F202" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>324</v>
@@ -12668,7 +12681,7 @@
         <v>339</v>
       </c>
       <c r="I202" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J202" s="4"/>
       <c r="K202" s="15"/>
@@ -12696,7 +12709,7 @@
         <v>285</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>328</v>
@@ -12708,7 +12721,7 @@
         <v>331</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G203" s="7" t="s">
         <v>324</v>
@@ -12726,10 +12739,10 @@
         <v>337</v>
       </c>
       <c r="N203" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="O203" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="O203" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="P203" s="41"/>
       <c r="Q203" s="41"/>
@@ -12739,17 +12752,17 @@
         <v>286</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G204" s="7" t="s">
         <v>324</v>
@@ -12767,10 +12780,10 @@
         <v>337</v>
       </c>
       <c r="N204" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="O204" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="O204" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="P204" s="41"/>
       <c r="Q204" s="41"/>
@@ -12803,17 +12816,17 @@
   <sheetData>
     <row r="2" spans="1:16">
       <c r="A2" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
         <v>303</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>

--- a/tabular/ncbi-refseqs/ifnl-side-data.xlsx
+++ b/tabular/ncbi-refseqs/ifnl-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/ncbi-refseqs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/ncbi-refseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E919238-C0D9-264C-8807-C14608146C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36DBD70-DBD9-474A-A1D8-D551BF9362FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="700" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19780" yWindow="700" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
@@ -1816,7 +1816,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3528,11 +3528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -3552,7 +3552,7 @@
     <col min="17" max="17" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>279</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>260</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>401</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>403</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>266</v>
       </c>
@@ -3773,7 +3773,7 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>409</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>456</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>265</v>
       </c>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="Q8" s="38"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>255</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="Q9" s="38"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>257</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="Q10" s="38"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>270</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>405</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>486</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>271</v>
       </c>
@@ -4150,7 +4150,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>469</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>463</v>
       </c>
@@ -4236,7 +4236,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>503</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>454</v>
       </c>
@@ -4320,7 +4320,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>496</v>
       </c>
@@ -4363,7 +4363,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>470</v>
       </c>
@@ -4406,7 +4406,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>264</v>
       </c>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="Q21" s="38"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>467</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>267</v>
       </c>
@@ -4533,7 +4533,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>488</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>256</v>
       </c>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="Q25" s="38"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>269</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="38"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>256</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="38"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>404</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="38"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>492</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="38"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>275</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>178</v>
       </c>
@@ -4873,7 +4873,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="38"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>273</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>439</v>
       </c>
@@ -4959,7 +4959,7 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="38"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>472</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>274</v>
       </c>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="Q35" s="38"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>406</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>482</v>
       </c>
@@ -5129,7 +5129,7 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="38"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>478</v>
       </c>
@@ -5172,7 +5172,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="38"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>263</v>
       </c>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="Q39" s="38"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>400</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="38"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>494</v>
       </c>
@@ -5299,7 +5299,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="38"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>408</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="38"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>450</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="38"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>258</v>
       </c>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="Q44" s="38"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>272</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="38"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>447</v>
       </c>
@@ -5506,7 +5506,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="38"/>
     </row>
-    <row r="47" spans="1:17" ht="16" customHeight="1">
+    <row r="47" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>399</v>
       </c>
@@ -5547,7 +5547,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="38"/>
     </row>
-    <row r="48" spans="1:17" ht="16" customHeight="1">
+    <row r="48" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>261</v>
       </c>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="Q48" s="38"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>277</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>468</v>
       </c>
@@ -5678,7 +5678,7 @@
       <c r="P50" s="38"/>
       <c r="Q50" s="38"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>254</v>
       </c>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="Q51" s="38"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>268</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="38"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>407</v>
       </c>
@@ -5803,7 +5803,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="38"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>444</v>
       </c>
@@ -5846,7 +5846,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="38"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>396</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="38"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>398</v>
       </c>
@@ -5928,7 +5928,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="38"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>489</v>
       </c>
@@ -5971,7 +5971,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="38"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
         <v>495</v>
       </c>
@@ -6014,7 +6014,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="38"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
         <v>465</v>
       </c>
@@ -6057,7 +6057,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="38"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>262</v>
       </c>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="Q60" s="38"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
         <v>278</v>
       </c>
@@ -6141,7 +6141,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="38"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>276</v>
       </c>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="Q62" s="38"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>259</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="38"/>
     </row>
-    <row r="64" spans="1:17" s="5" customFormat="1">
+    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
         <v>259</v>
       </c>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="Q64" s="38"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>504</v>
       </c>
@@ -6311,7 +6311,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="38"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
         <v>161</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
         <v>281</v>
       </c>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="Q67" s="38"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="34" t="s">
         <v>411</v>
       </c>
@@ -6446,7 +6446,7 @@
       <c r="P68" s="40"/>
       <c r="Q68" s="40"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="34" t="s">
         <v>416</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="P69" s="40"/>
       <c r="Q69" s="40"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
         <v>287</v>
       </c>
@@ -6528,7 +6528,7 @@
       <c r="P70" s="42"/>
       <c r="Q70" s="42"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
         <v>284</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="P71" s="41"/>
       <c r="Q71" s="41"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
         <v>283</v>
       </c>
@@ -6614,7 +6614,7 @@
       <c r="P72" s="43"/>
       <c r="Q72" s="43"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>288</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="P73" s="44"/>
       <c r="Q73" s="44"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
         <v>289</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="P74" s="44"/>
       <c r="Q74" s="44"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
         <v>290</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="P75" s="44"/>
       <c r="Q75" s="44"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
         <v>245</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
         <v>213</v>
       </c>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="Q77" s="4"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
         <v>250</v>
       </c>
@@ -6882,7 +6882,7 @@
       </c>
       <c r="Q78" s="4"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
         <v>436</v>
       </c>
@@ -6927,7 +6927,7 @@
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="46" t="s">
         <v>443</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
         <v>212</v>
       </c>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="Q81" s="4"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
         <v>2</v>
       </c>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
         <v>449</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
         <v>382</v>
       </c>
@@ -7162,7 +7162,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
         <v>475</v>
       </c>
@@ -7209,7 +7209,7 @@
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
         <v>239</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
         <v>222</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
         <v>429</v>
       </c>
@@ -7352,7 +7352,7 @@
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
         <v>452</v>
       </c>
@@ -7397,7 +7397,7 @@
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
         <v>455</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="46" t="s">
         <v>433</v>
       </c>
@@ -7489,7 +7489,7 @@
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="46" t="s">
         <v>247</v>
       </c>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="Q92" s="4"/>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
         <v>216</v>
       </c>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="Q93" s="4"/>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
         <v>4</v>
       </c>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="Q94" s="4"/>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="24" t="s">
         <v>442</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="24" t="s">
         <v>5</v>
       </c>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="Q96" s="4"/>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="24" t="s">
         <v>211</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="24" t="s">
         <v>243</v>
       </c>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="Q98" s="4"/>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
         <v>219</v>
       </c>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="Q99" s="4"/>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
         <v>483</v>
       </c>
@@ -7918,7 +7918,7 @@
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
         <v>493</v>
       </c>
@@ -7965,7 +7965,7 @@
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
         <v>434</v>
       </c>
@@ -8010,7 +8010,7 @@
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="24" t="s">
         <v>241</v>
       </c>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="Q103" s="4"/>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="24" t="s">
         <v>345</v>
       </c>
@@ -8104,7 +8104,7 @@
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="24" t="s">
         <v>208</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="24" t="s">
         <v>242</v>
       </c>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="Q106" s="4"/>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="24" t="s">
         <v>210</v>
       </c>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="Q107" s="4"/>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
         <v>484</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="P108" s="4"/>
       <c r="Q108" s="4"/>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
         <v>240</v>
       </c>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="Q109" s="4"/>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
         <v>214</v>
       </c>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="Q110" s="4"/>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
         <v>509</v>
       </c>
@@ -8435,7 +8435,7 @@
       <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="24" t="s">
         <v>3</v>
       </c>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="Q112" s="4"/>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="24" t="s">
         <v>445</v>
       </c>
@@ -8529,7 +8529,7 @@
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="24" t="s">
         <v>215</v>
       </c>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="Q114" s="4"/>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="24" t="s">
         <v>378</v>
       </c>
@@ -8621,7 +8621,7 @@
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="24" t="s">
         <v>207</v>
       </c>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="Q116" s="4"/>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="24" t="s">
         <v>244</v>
       </c>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="Q117" s="4"/>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="24" t="s">
         <v>280</v>
       </c>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="Q118" s="4"/>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="25" t="s">
         <v>246</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="25" t="s">
         <v>0</v>
       </c>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="Q120" s="45"/>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="25" t="s">
         <v>217</v>
       </c>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="Q121" s="45"/>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="25" t="s">
         <v>218</v>
       </c>
@@ -8960,7 +8960,7 @@
       </c>
       <c r="Q122" s="45"/>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="25" t="s">
         <v>220</v>
       </c>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="Q123" s="45"/>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
         <v>249</v>
       </c>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="Q124" s="45"/>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="25" t="s">
         <v>71</v>
       </c>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="Q125" s="45"/>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="25" t="s">
         <v>209</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="25" t="s">
         <v>221</v>
       </c>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="Q127" s="45"/>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="26" t="s">
         <v>252</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="26" t="s">
         <v>232</v>
       </c>
@@ -9305,7 +9305,7 @@
       </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="26" t="s">
         <v>383</v>
       </c>
@@ -9350,7 +9350,7 @@
       <c r="P130" s="10"/>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="26" t="s">
         <v>236</v>
       </c>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="26" t="s">
         <v>223</v>
       </c>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="26" t="s">
         <v>473</v>
       </c>
@@ -9491,7 +9491,7 @@
       <c r="P133" s="10"/>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="26" t="s">
         <v>237</v>
       </c>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="26" t="s">
         <v>487</v>
       </c>
@@ -9585,7 +9585,7 @@
       <c r="P135" s="10"/>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="26" t="s">
         <v>387</v>
       </c>
@@ -9630,7 +9630,7 @@
       <c r="P136" s="10"/>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="26" t="s">
         <v>226</v>
       </c>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="26" t="s">
         <v>227</v>
       </c>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="26" t="s">
         <v>2</v>
       </c>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="26" t="s">
         <v>477</v>
       </c>
@@ -9818,7 +9818,7 @@
       <c r="P140" s="10"/>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="26" t="s">
         <v>501</v>
       </c>
@@ -9865,7 +9865,7 @@
       <c r="P141" s="10"/>
       <c r="Q141" s="10"/>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="26" t="s">
         <v>502</v>
       </c>
@@ -9912,7 +9912,7 @@
       <c r="P142" s="10"/>
       <c r="Q142" s="10"/>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="26" t="s">
         <v>453</v>
       </c>
@@ -9957,7 +9957,7 @@
       <c r="P143" s="10"/>
       <c r="Q143" s="10"/>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="26" t="s">
         <v>464</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="26" t="s">
         <v>471</v>
       </c>
@@ -10051,7 +10051,7 @@
       <c r="P145" s="10"/>
       <c r="Q145" s="10"/>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="26" t="s">
         <v>248</v>
       </c>
@@ -10098,7 +10098,7 @@
       </c>
       <c r="Q146" s="10"/>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="26" t="s">
         <v>388</v>
       </c>
@@ -10143,7 +10143,7 @@
       <c r="P147" s="10"/>
       <c r="Q147" s="10"/>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="26" t="s">
         <v>235</v>
       </c>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="Q148" s="10"/>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="26" t="s">
         <v>410</v>
       </c>
@@ -10235,7 +10235,7 @@
       <c r="P149" s="10"/>
       <c r="Q149" s="10"/>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="26" t="s">
         <v>5</v>
       </c>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="Q150" s="10"/>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="26" t="s">
         <v>490</v>
       </c>
@@ -10329,7 +10329,7 @@
       <c r="P151" s="10"/>
       <c r="Q151" s="10"/>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="26" t="s">
         <v>491</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="P152" s="10"/>
       <c r="Q152" s="10"/>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="26" t="s">
         <v>326</v>
       </c>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="Q153" s="10"/>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="26" t="s">
         <v>225</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="26" t="s">
         <v>251</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="26" t="s">
         <v>253</v>
       </c>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="Q156" s="10"/>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="26" t="s">
         <v>384</v>
       </c>
@@ -10617,7 +10617,7 @@
       <c r="P157" s="10"/>
       <c r="Q157" s="10"/>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="26" t="s">
         <v>385</v>
       </c>
@@ -10662,7 +10662,7 @@
       <c r="P158" s="10"/>
       <c r="Q158" s="10"/>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="26" t="s">
         <v>386</v>
       </c>
@@ -10707,7 +10707,7 @@
       <c r="P159" s="10"/>
       <c r="Q159" s="10"/>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="26" t="s">
         <v>466</v>
       </c>
@@ -10754,7 +10754,7 @@
       <c r="P160" s="10"/>
       <c r="Q160" s="10"/>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="26" t="s">
         <v>425</v>
       </c>
@@ -10799,7 +10799,7 @@
       <c r="P161" s="10"/>
       <c r="Q161" s="10"/>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="26" t="s">
         <v>377</v>
       </c>
@@ -10844,7 +10844,7 @@
       <c r="P162" s="10"/>
       <c r="Q162" s="10"/>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="26" t="s">
         <v>395</v>
       </c>
@@ -10889,7 +10889,7 @@
       <c r="P163" s="10"/>
       <c r="Q163" s="10"/>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="26" t="s">
         <v>460</v>
       </c>
@@ -10936,7 +10936,7 @@
       <c r="P164" s="10"/>
       <c r="Q164" s="10"/>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="26" t="s">
         <v>461</v>
       </c>
@@ -10983,7 +10983,7 @@
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="26" t="s">
         <v>457</v>
       </c>
@@ -11028,7 +11028,7 @@
       <c r="P166" s="10"/>
       <c r="Q166" s="10"/>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="26" t="s">
         <v>458</v>
       </c>
@@ -11075,7 +11075,7 @@
       <c r="P167" s="17"/>
       <c r="Q167" s="17"/>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="26" t="s">
         <v>431</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="P168" s="10"/>
       <c r="Q168" s="10"/>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="26" t="s">
         <v>462</v>
       </c>
@@ -11167,7 +11167,7 @@
       <c r="P169" s="10"/>
       <c r="Q169" s="10"/>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="26" t="s">
         <v>234</v>
       </c>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="Q170" s="10"/>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="26" t="s">
         <v>459</v>
       </c>
@@ -11261,7 +11261,7 @@
       <c r="P171" s="10"/>
       <c r="Q171" s="10"/>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="26" t="s">
         <v>497</v>
       </c>
@@ -11308,7 +11308,7 @@
       <c r="P172" s="10"/>
       <c r="Q172" s="10"/>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="26" t="s">
         <v>498</v>
       </c>
@@ -11355,7 +11355,7 @@
       <c r="P173" s="10"/>
       <c r="Q173" s="10"/>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="26" t="s">
         <v>499</v>
       </c>
@@ -11402,7 +11402,7 @@
       <c r="P174" s="10"/>
       <c r="Q174" s="10"/>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="26" t="s">
         <v>230</v>
       </c>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="Q175" s="10"/>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="26" t="s">
         <v>229</v>
       </c>
@@ -11496,7 +11496,7 @@
       </c>
       <c r="Q176" s="10"/>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="26" t="s">
         <v>380</v>
       </c>
@@ -11541,7 +11541,7 @@
       <c r="P177" s="10"/>
       <c r="Q177" s="10"/>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="26" t="s">
         <v>381</v>
       </c>
@@ -11586,7 +11586,7 @@
       <c r="P178" s="10"/>
       <c r="Q178" s="10"/>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="26" t="s">
         <v>448</v>
       </c>
@@ -11631,7 +11631,7 @@
       <c r="P179" s="10"/>
       <c r="Q179" s="10"/>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="26" t="s">
         <v>224</v>
       </c>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="Q180" s="10"/>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="26" t="s">
         <v>485</v>
       </c>
@@ -11725,7 +11725,7 @@
       <c r="P181" s="17"/>
       <c r="Q181" s="17"/>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="26" t="s">
         <v>500</v>
       </c>
@@ -11772,7 +11772,7 @@
       <c r="P182" s="17"/>
       <c r="Q182" s="17"/>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="26" t="s">
         <v>228</v>
       </c>
@@ -11819,7 +11819,7 @@
       </c>
       <c r="Q183" s="10"/>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="26" t="s">
         <v>505</v>
       </c>
@@ -11866,7 +11866,7 @@
       <c r="P184" s="10"/>
       <c r="Q184" s="10"/>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="26" t="s">
         <v>506</v>
       </c>
@@ -11913,7 +11913,7 @@
       <c r="P185" s="10"/>
       <c r="Q185" s="10"/>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="26" t="s">
         <v>507</v>
       </c>
@@ -11960,7 +11960,7 @@
       <c r="P186" s="10"/>
       <c r="Q186" s="10"/>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="26" t="s">
         <v>508</v>
       </c>
@@ -12007,7 +12007,7 @@
       <c r="P187" s="10"/>
       <c r="Q187" s="10"/>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="26" t="s">
         <v>438</v>
       </c>
@@ -12052,7 +12052,7 @@
       <c r="P188" s="10"/>
       <c r="Q188" s="10"/>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="26" t="s">
         <v>440</v>
       </c>
@@ -12097,7 +12097,7 @@
       <c r="P189" s="10"/>
       <c r="Q189" s="10"/>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="26" t="s">
         <v>479</v>
       </c>
@@ -12144,7 +12144,7 @@
       <c r="P190" s="10"/>
       <c r="Q190" s="10"/>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="26" t="s">
         <v>474</v>
       </c>
@@ -12191,7 +12191,7 @@
       <c r="P191" s="10"/>
       <c r="Q191" s="10"/>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="26" t="s">
         <v>233</v>
       </c>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="Q192" s="10"/>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" s="26" t="s">
         <v>480</v>
       </c>
@@ -12285,7 +12285,7 @@
       <c r="P193" s="10"/>
       <c r="Q193" s="10"/>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" s="26" t="s">
         <v>481</v>
       </c>
@@ -12332,7 +12332,7 @@
       <c r="P194" s="10"/>
       <c r="Q194" s="10"/>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" s="26" t="s">
         <v>476</v>
       </c>
@@ -12379,7 +12379,7 @@
       <c r="P195" s="10"/>
       <c r="Q195" s="10"/>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="26" t="s">
         <v>379</v>
       </c>
@@ -12424,7 +12424,7 @@
       <c r="P196" s="10"/>
       <c r="Q196" s="10"/>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" s="26" t="s">
         <v>451</v>
       </c>
@@ -12469,7 +12469,7 @@
       <c r="P197" s="10"/>
       <c r="Q197" s="10"/>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" s="26" t="s">
         <v>238</v>
       </c>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="Q198" s="10"/>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="26" t="s">
         <v>231</v>
       </c>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="Q199" s="10"/>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" s="24" t="s">
         <v>420</v>
       </c>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="Q200" s="4"/>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" s="24" t="s">
         <v>206</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" s="24" t="s">
         <v>169</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" s="22" t="s">
         <v>285</v>
       </c>
@@ -12747,7 +12747,7 @@
       <c r="P203" s="41"/>
       <c r="Q203" s="41"/>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="22" t="s">
         <v>286</v>
       </c>
@@ -12812,9 +12812,9 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>446</v>
       </c>

--- a/tabular/ncbi-refseqs/ifnl-side-data.xlsx
+++ b/tabular/ncbi-refseqs/ifnl-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/ncbi-refseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36DBD70-DBD9-474A-A1D8-D551BF9362FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C0C691-F3D9-4447-AB77-AA93EAD5F3C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19780" yWindow="700" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16980" yWindow="6820" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
@@ -3528,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12809,7 +12809,7 @@
   <dimension ref="A2:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E34" sqref="E33:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/ncbi-refseqs/ifnl-side-data.xlsx
+++ b/tabular/ncbi-refseqs/ifnl-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/ncbi-refseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C0C691-F3D9-4447-AB77-AA93EAD5F3C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555FE28E-A022-1941-B4A4-76E50F624939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16980" yWindow="6820" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3528,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/ncbi-refseqs/ifnl-side-data.xlsx
+++ b/tabular/ncbi-refseqs/ifnl-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/ncbi-refseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555FE28E-A022-1941-B4A4-76E50F624939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04033D0-B83D-7942-A440-5982095E5308}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="6820" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20380" yWindow="7540" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
@@ -3529,7 +3529,7 @@
   <dimension ref="A1:Q204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/ncbi-refseqs/ifnl-side-data.xlsx
+++ b/tabular/ncbi-refseqs/ifnl-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/ncbi-refseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04033D0-B83D-7942-A440-5982095E5308}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C8CD49-5F03-E84D-AC77-168C0F5B49D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="7540" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7820" yWindow="6060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="593">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1810,6 +1810,9 @@
   </si>
   <si>
     <t>REF_IFNLb_Mammal_B2_2_MASTER</t>
+  </si>
+  <si>
+    <t>duplicate_id</t>
   </si>
 </sst>
 </file>
@@ -3526,10 +3529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q204"/>
+  <dimension ref="A1:R204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3539,20 +3542,20 @@
     <col min="3" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" style="39" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="39"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="19" customWidth="1"/>
+    <col min="9" max="10" width="18.83203125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" style="39" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>279</v>
       </c>
@@ -3572,40 +3575,43 @@
         <v>361</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>362</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>260</v>
       </c>
@@ -3623,34 +3629,35 @@
         <v>350</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I2" s="18"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="Q2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="R2" s="38" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>401</v>
       </c>
@@ -3668,30 +3675,31 @@
         <v>350</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I3" s="18"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="38"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>403</v>
       </c>
@@ -3708,31 +3716,32 @@
       <c r="F4" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I4" s="18"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="3" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="38"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>266</v>
       </c>
@@ -3750,30 +3759,31 @@
         <v>350</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I5" s="18"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="3" t="s">
+      <c r="J5" s="18"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>409</v>
       </c>
@@ -3790,31 +3800,32 @@
       <c r="F6" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I6" s="18"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="3" t="s">
+      <c r="J6" s="18"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="38"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>456</v>
       </c>
@@ -3831,31 +3842,32 @@
       <c r="F7" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I7" s="17"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="10" t="s">
+      <c r="J7" s="17"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="O7" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="P7" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>265</v>
       </c>
@@ -3872,33 +3884,34 @@
       <c r="F8" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I8" s="18"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="3" t="s">
+      <c r="J8" s="18"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="Q8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="38"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="38"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>255</v>
       </c>
@@ -3915,33 +3928,34 @@
       <c r="F9" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="3" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="Q9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" s="38"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="38"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>257</v>
       </c>
@@ -3958,33 +3972,34 @@
       <c r="F10" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I10" s="18"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="3" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="38"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="38"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>270</v>
       </c>
@@ -4001,31 +4016,32 @@
       <c r="F11" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I11" s="18"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="3" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="38"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>405</v>
       </c>
@@ -4043,30 +4059,31 @@
         <v>350</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="3" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>486</v>
       </c>
@@ -4085,31 +4102,32 @@
       <c r="F13" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I13" s="18"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="3" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="38"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>271</v>
       </c>
@@ -4127,30 +4145,31 @@
         <v>350</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I14" s="18"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="3" t="s">
+      <c r="J14" s="18"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="38"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>469</v>
       </c>
@@ -4169,31 +4188,32 @@
       <c r="F15" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I15" s="18"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="3" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="38"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>463</v>
       </c>
@@ -4212,31 +4232,32 @@
       <c r="F16" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I16" s="18"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="3" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="38"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>503</v>
       </c>
@@ -4255,31 +4276,32 @@
       <c r="F17" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I17" s="18"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="3" t="s">
+      <c r="J17" s="18"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="38"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>454</v>
       </c>
@@ -4296,31 +4318,32 @@
       <c r="F18" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="10" t="s">
+      <c r="J18" s="17"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="O18" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="P18" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>496</v>
       </c>
@@ -4339,31 +4362,32 @@
       <c r="F19" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I19" s="18"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="3" t="s">
+      <c r="J19" s="18"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="38"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>470</v>
       </c>
@@ -4382,31 +4406,32 @@
       <c r="F20" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I20" s="18"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="3" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="38"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>264</v>
       </c>
@@ -4423,33 +4448,34 @@
       <c r="F21" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="3" t="s">
+      <c r="J21" s="18"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P21" s="38" t="s">
+      <c r="Q21" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="38"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="38"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>467</v>
       </c>
@@ -4468,31 +4494,32 @@
       <c r="F22" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I22" s="18"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="3" t="s">
+      <c r="J22" s="18"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>267</v>
       </c>
@@ -4510,30 +4537,31 @@
         <v>350</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I23" s="18"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="3" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="38"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>488</v>
       </c>
@@ -4553,30 +4581,31 @@
         <v>350</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I24" s="18"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="3" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="38"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>256</v>
       </c>
@@ -4594,32 +4623,33 @@
         <v>350</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I25" s="18"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="3" t="s">
+      <c r="J25" s="18"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P25" s="38" t="s">
+      <c r="Q25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Q25" s="38"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="38"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>269</v>
       </c>
@@ -4636,31 +4666,32 @@
       <c r="F26" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H26" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I26" s="18"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="3" t="s">
+      <c r="J26" s="18"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P26" s="38"/>
       <c r="Q26" s="38"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="38"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>256</v>
       </c>
@@ -4678,30 +4709,31 @@
         <v>350</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I27" s="18"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="3" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P27" s="38"/>
       <c r="Q27" s="38"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="38"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>404</v>
       </c>
@@ -4718,31 +4750,32 @@
       <c r="F28" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H28" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I28" s="18"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="3" t="s">
+      <c r="J28" s="18"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="P28" s="38"/>
       <c r="Q28" s="38"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="38"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>492</v>
       </c>
@@ -4761,31 +4794,32 @@
       <c r="F29" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H29" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I29" s="18"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="3" t="s">
+      <c r="J29" s="18"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="P29" s="38"/>
       <c r="Q29" s="38"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="38"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>275</v>
       </c>
@@ -4804,35 +4838,36 @@
       <c r="F30" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I30" s="18"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="3" t="s">
+      <c r="J30" s="18"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P30" s="38" t="s">
+      <c r="Q30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Q30" s="38" t="s">
+      <c r="R30" s="38" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>178</v>
       </c>
@@ -4849,31 +4884,32 @@
       <c r="F31" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H31" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I31" s="18"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="3" t="s">
+      <c r="J31" s="18"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="P31" s="38"/>
       <c r="Q31" s="38"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="38"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>273</v>
       </c>
@@ -4890,35 +4926,36 @@
       <c r="F32" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H32" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I32" s="18"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="3" t="s">
+      <c r="J32" s="18"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P32" s="38" t="s">
+      <c r="Q32" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="Q32" s="38" t="s">
+      <c r="R32" s="38" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>439</v>
       </c>
@@ -4935,31 +4972,32 @@
       <c r="F33" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I33" s="18"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="3" t="s">
+      <c r="J33" s="18"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P33" s="38"/>
       <c r="Q33" s="38"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="38"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>472</v>
       </c>
@@ -4978,31 +5016,32 @@
       <c r="F34" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H34" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I34" s="18"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="3" t="s">
+      <c r="J34" s="18"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="38"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>274</v>
       </c>
@@ -5020,32 +5059,33 @@
         <v>350</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I35" s="18"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="3" t="s">
+      <c r="J35" s="18"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P35" s="38" t="s">
+      <c r="Q35" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="Q35" s="38"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="38"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>406</v>
       </c>
@@ -5062,31 +5102,32 @@
       <c r="F36" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H36" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I36" s="18"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="3" t="s">
+      <c r="J36" s="18"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="38"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>482</v>
       </c>
@@ -5105,31 +5146,32 @@
       <c r="F37" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H37" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I37" s="18"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="3" t="s">
+      <c r="J37" s="18"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="P37" s="38"/>
       <c r="Q37" s="38"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="38"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>478</v>
       </c>
@@ -5148,31 +5190,32 @@
       <c r="F38" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H38" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I38" s="18"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="3" t="s">
+      <c r="J38" s="18"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P38" s="38"/>
       <c r="Q38" s="38"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="38"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>263</v>
       </c>
@@ -5190,32 +5233,33 @@
         <v>350</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H39" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I39" s="18"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="3" t="s">
+      <c r="J39" s="18"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P39" s="38" t="s">
+      <c r="Q39" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="Q39" s="38"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="38"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>400</v>
       </c>
@@ -5233,30 +5277,31 @@
         <v>350</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H40" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I40" s="18"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="3" t="s">
+      <c r="J40" s="18"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="P40" s="38"/>
       <c r="Q40" s="38"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="38"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>494</v>
       </c>
@@ -5275,31 +5320,32 @@
       <c r="F41" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H41" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I41" s="18"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="3" t="s">
+      <c r="J41" s="18"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="P41" s="38"/>
       <c r="Q41" s="38"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="38"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>408</v>
       </c>
@@ -5316,31 +5362,32 @@
       <c r="F42" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H42" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I42" s="18"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="3" t="s">
+      <c r="J42" s="18"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="P42" s="38"/>
       <c r="Q42" s="38"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="38"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>450</v>
       </c>
@@ -5357,31 +5404,32 @@
       <c r="F43" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H43" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I43" s="18"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="3" t="s">
+      <c r="J43" s="18"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="P43" s="38"/>
       <c r="Q43" s="38"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="38"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>258</v>
       </c>
@@ -5399,32 +5447,33 @@
         <v>350</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I44" s="18"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="3" t="s">
+      <c r="J44" s="18"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P44" s="38" t="s">
+      <c r="Q44" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="Q44" s="38"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="38"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>272</v>
       </c>
@@ -5442,30 +5491,31 @@
         <v>350</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H45" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I45" s="18"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="3" t="s">
+      <c r="J45" s="18"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P45" s="38"/>
       <c r="Q45" s="38"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="38"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>447</v>
       </c>
@@ -5483,30 +5533,31 @@
         <v>350</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I46" s="18"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="3" t="s">
+      <c r="J46" s="18"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="P46" s="38"/>
       <c r="Q46" s="38"/>
-    </row>
-    <row r="47" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R46" s="38"/>
+    </row>
+    <row r="47" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>399</v>
       </c>
@@ -5523,31 +5574,32 @@
       <c r="F47" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H47" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I47" s="18"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="3" t="s">
+      <c r="J47" s="18"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="P47" s="38"/>
       <c r="Q47" s="38"/>
-    </row>
-    <row r="48" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R47" s="38"/>
+    </row>
+    <row r="48" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>261</v>
       </c>
@@ -5564,33 +5616,34 @@
       <c r="F48" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H48" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I48" s="18"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="3" t="s">
+      <c r="J48" s="18"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="P48" s="38" t="s">
+      <c r="Q48" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="Q48" s="38"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="38"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>277</v>
       </c>
@@ -5608,34 +5661,35 @@
         <v>350</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H49" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I49" s="18"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="3" t="s">
+      <c r="J49" s="18"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="P49" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="P49" s="38" t="s">
+      <c r="Q49" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="Q49" s="38" t="s">
+      <c r="R49" s="38" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>468</v>
       </c>
@@ -5654,31 +5708,32 @@
       <c r="F50" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H50" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I50" s="18"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="3" t="s">
+      <c r="J50" s="18"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P50" s="38"/>
       <c r="Q50" s="38"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="38"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>254</v>
       </c>
@@ -5695,33 +5750,34 @@
       <c r="F51" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H51" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I51" s="18"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="3" t="s">
+      <c r="J51" s="18"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="P51" s="38" t="s">
+      <c r="Q51" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q51" s="38"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="38"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>268</v>
       </c>
@@ -5738,31 +5794,32 @@
       <c r="F52" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I52" s="18"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="3" t="s">
+      <c r="J52" s="18"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="O52" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="P52" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="P52" s="38"/>
       <c r="Q52" s="38"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="38"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>407</v>
       </c>
@@ -5780,30 +5837,31 @@
         <v>350</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H53" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I53" s="18"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="3" t="s">
+      <c r="J53" s="18"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="O53" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O53" s="3" t="s">
+      <c r="P53" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="P53" s="38"/>
       <c r="Q53" s="38"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="38"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>444</v>
       </c>
@@ -5823,30 +5881,31 @@
         <v>350</v>
       </c>
       <c r="G54" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H54" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I54" s="18"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="3" t="s">
+      <c r="J54" s="18"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="O54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O54" s="3" t="s">
+      <c r="P54" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="P54" s="38"/>
       <c r="Q54" s="38"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="38"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>396</v>
       </c>
@@ -5863,31 +5922,32 @@
       <c r="F55" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H55" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I55" s="18"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="3" t="s">
+      <c r="J55" s="18"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="O55" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O55" s="3" t="s">
+      <c r="P55" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P55" s="38"/>
       <c r="Q55" s="38"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="38"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>398</v>
       </c>
@@ -5905,30 +5965,31 @@
         <v>350</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H56" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I56" s="18"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="3" t="s">
+      <c r="J56" s="18"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="O56" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="P56" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P56" s="38"/>
       <c r="Q56" s="38"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="38"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>489</v>
       </c>
@@ -5947,31 +6008,32 @@
       <c r="F57" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H57" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I57" s="18"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="3" t="s">
+      <c r="J57" s="18"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="O57" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P57" s="38"/>
       <c r="Q57" s="38"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="38"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
         <v>495</v>
       </c>
@@ -5990,31 +6052,32 @@
       <c r="F58" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H58" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I58" s="18"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="3" t="s">
+      <c r="J58" s="18"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="P58" s="38"/>
       <c r="Q58" s="38"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="38"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
         <v>465</v>
       </c>
@@ -6033,31 +6096,32 @@
       <c r="F59" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H59" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I59" s="18"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="3" t="s">
+      <c r="J59" s="18"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="O59" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O59" s="3" t="s">
+      <c r="P59" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="P59" s="38"/>
       <c r="Q59" s="38"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="38"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>262</v>
       </c>
@@ -6074,33 +6138,34 @@
       <c r="F60" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H60" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I60" s="18"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="3" t="s">
+      <c r="J60" s="18"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="N60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="O60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O60" s="3" t="s">
+      <c r="P60" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P60" s="38" t="s">
+      <c r="Q60" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Q60" s="38"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="38"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
         <v>278</v>
       </c>
@@ -6118,30 +6183,31 @@
         <v>350</v>
       </c>
       <c r="G61" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H61" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I61" s="18"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="3" t="s">
+      <c r="J61" s="18"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="O61" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="O61" s="3" t="s">
+      <c r="P61" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="P61" s="38"/>
       <c r="Q61" s="38"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="38"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>276</v>
       </c>
@@ -6159,32 +6225,33 @@
         <v>350</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H62" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I62" s="18"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="3" t="s">
+      <c r="J62" s="18"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="O62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="P62" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P62" s="38" t="s">
+      <c r="Q62" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Q62" s="38"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="38"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>259</v>
       </c>
@@ -6202,30 +6269,31 @@
         <v>350</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H63" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I63" s="18"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="3" t="s">
+      <c r="J63" s="18"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="N63" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="O63" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O63" s="3" t="s">
+      <c r="P63" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P63" s="38"/>
       <c r="Q63" s="38"/>
-    </row>
-    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R63" s="38"/>
+    </row>
+    <row r="64" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
         <v>259</v>
       </c>
@@ -6242,33 +6310,34 @@
       <c r="F64" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H64" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I64" s="18"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="3" t="s">
+      <c r="J64" s="18"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N64" s="3" t="s">
+      <c r="O64" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O64" s="3" t="s">
+      <c r="P64" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P64" s="38" t="s">
+      <c r="Q64" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="Q64" s="38"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="38"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>504</v>
       </c>
@@ -6287,31 +6356,32 @@
       <c r="F65" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H65" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I65" s="18"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="3" t="s">
+      <c r="J65" s="18"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="O65" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="P65" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="P65" s="38"/>
       <c r="Q65" s="38"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="38"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
         <v>161</v>
       </c>
@@ -6329,34 +6399,35 @@
         <v>350</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H66" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I66" s="18"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="3" t="s">
+      <c r="J66" s="18"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="N66" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="N66" s="3" t="s">
+      <c r="O66" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="P66" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="P66" s="38" t="s">
+      <c r="Q66" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="Q66" s="38" t="s">
+      <c r="R66" s="38" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
         <v>281</v>
       </c>
@@ -6374,36 +6445,37 @@
         <v>350</v>
       </c>
       <c r="G67" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H67" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I67" s="18"/>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="18"/>
+      <c r="K67" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="K67" s="18">
+      <c r="L67" s="18">
         <v>1</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="M67" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="N67" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="O67" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O67" s="3" t="s">
+      <c r="P67" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P67" s="38" t="s">
+      <c r="Q67" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="Q67" s="38"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="38"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="34" t="s">
         <v>411</v>
       </c>
@@ -6423,30 +6495,31 @@
         <v>350</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="H68" s="35" t="s">
         <v>340</v>
       </c>
+      <c r="H68" s="36">
+        <v>1</v>
+      </c>
       <c r="I68" s="36"/>
-      <c r="J68" s="35"/>
+      <c r="J68" s="36"/>
       <c r="K68" s="35"/>
-      <c r="L68" s="35" t="s">
+      <c r="L68" s="35"/>
+      <c r="M68" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="M68" s="35" t="s">
+      <c r="N68" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="N68" s="35" t="s">
+      <c r="O68" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="O68" s="35" t="s">
+      <c r="P68" s="35" t="s">
         <v>551</v>
       </c>
-      <c r="P68" s="40"/>
       <c r="Q68" s="40"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="40"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="34" t="s">
         <v>416</v>
       </c>
@@ -6464,30 +6537,31 @@
         <v>350</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="H69" s="35" t="s">
         <v>418</v>
       </c>
+      <c r="H69" s="36">
+        <v>1</v>
+      </c>
       <c r="I69" s="36"/>
-      <c r="J69" s="35"/>
+      <c r="J69" s="36"/>
       <c r="K69" s="35"/>
-      <c r="L69" s="35" t="s">
+      <c r="L69" s="35"/>
+      <c r="M69" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="M69" s="35" t="s">
+      <c r="N69" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="N69" s="35" t="s">
+      <c r="O69" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="O69" s="35" t="s">
+      <c r="P69" s="35" t="s">
         <v>553</v>
       </c>
-      <c r="P69" s="40"/>
       <c r="Q69" s="40"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="40"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
         <v>287</v>
       </c>
@@ -6505,30 +6579,31 @@
         <v>350</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="H70" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="H70" s="33">
+        <v>1</v>
+      </c>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="N70" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="O70" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="P70" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="I70" s="33"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="M70" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="N70" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="O70" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="P70" s="42"/>
       <c r="Q70" s="42"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="42"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
         <v>284</v>
       </c>
@@ -6548,30 +6623,31 @@
         <v>350</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H71" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="H71" s="13">
+        <v>2</v>
+      </c>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P71" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="I71" s="13"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M71" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="N71" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="O71" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="P71" s="41"/>
       <c r="Q71" s="41"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="41"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
         <v>283</v>
       </c>
@@ -6591,30 +6667,31 @@
         <v>350</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="H72" s="9" t="s">
         <v>335</v>
       </c>
+      <c r="H72" s="12">
+        <v>1</v>
+      </c>
       <c r="I72" s="12"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="9" t="s">
+      <c r="J72" s="12"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="M72" s="9" t="s">
+      <c r="N72" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="N72" s="9" t="s">
+      <c r="O72" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="O72" s="9" t="s">
+      <c r="P72" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="P72" s="43"/>
       <c r="Q72" s="43"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="43"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>288</v>
       </c>
@@ -6634,30 +6711,31 @@
         <v>350</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H73" s="8" t="s">
         <v>338</v>
       </c>
+      <c r="H73" s="14">
+        <v>1</v>
+      </c>
       <c r="I73" s="14"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="8" t="s">
+      <c r="J73" s="14"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="M73" s="8" t="s">
+      <c r="N73" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="N73" s="8" t="s">
+      <c r="O73" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="O73" s="8" t="s">
+      <c r="P73" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="P73" s="44"/>
       <c r="Q73" s="44"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="44"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
         <v>289</v>
       </c>
@@ -6675,30 +6753,31 @@
         <v>350</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H74" s="8" t="s">
         <v>338</v>
       </c>
+      <c r="H74" s="14">
+        <v>1</v>
+      </c>
       <c r="I74" s="14"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="8" t="s">
+      <c r="J74" s="14"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="M74" s="8" t="s">
+      <c r="N74" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="N74" s="8" t="s">
+      <c r="O74" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="O74" s="8" t="s">
+      <c r="P74" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="P74" s="44"/>
       <c r="Q74" s="44"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="44"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
         <v>290</v>
       </c>
@@ -6716,30 +6795,31 @@
         <v>350</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H75" s="8" t="s">
         <v>338</v>
       </c>
+      <c r="H75" s="14">
+        <v>1</v>
+      </c>
       <c r="I75" s="14"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="8" t="s">
+      <c r="J75" s="14"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="M75" s="8" t="s">
+      <c r="N75" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="N75" s="8" t="s">
+      <c r="O75" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="O75" s="8" t="s">
+      <c r="P75" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="P75" s="44"/>
       <c r="Q75" s="44"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="44"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
         <v>245</v>
       </c>
@@ -6757,38 +6837,39 @@
         <v>350</v>
       </c>
       <c r="G76" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H76" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I76" s="15">
         <v>1</v>
       </c>
-      <c r="J76" s="48" t="s">
+      <c r="J76" s="15"/>
+      <c r="K76" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="4" t="s">
+      <c r="L76" s="15"/>
+      <c r="M76" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M76" s="4" t="s">
+      <c r="N76" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N76" s="4" t="s">
+      <c r="O76" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="O76" s="4" t="s">
+      <c r="P76" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="P76" s="4" t="s">
+      <c r="Q76" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q76" s="4" t="s">
+      <c r="R76" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
         <v>213</v>
       </c>
@@ -6806,36 +6887,37 @@
         <v>350</v>
       </c>
       <c r="G77" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H77" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I77" s="15">
         <v>1</v>
       </c>
-      <c r="J77" s="48" t="s">
+      <c r="J77" s="15"/>
+      <c r="K77" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="K77" s="15"/>
-      <c r="L77" s="4" t="s">
+      <c r="L77" s="15"/>
+      <c r="M77" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="N77" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="O77" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="O77" s="4" t="s">
+      <c r="P77" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="P77" s="4" t="s">
+      <c r="Q77" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q77" s="4"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
         <v>250</v>
       </c>
@@ -6853,36 +6935,37 @@
         <v>350</v>
       </c>
       <c r="G78" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H78" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I78" s="15">
         <v>1</v>
       </c>
-      <c r="J78" s="48" t="s">
+      <c r="J78" s="15"/>
+      <c r="K78" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="K78" s="15"/>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="15"/>
+      <c r="M78" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="N78" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="O78" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O78" s="4" t="s">
+      <c r="P78" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P78" s="4" t="s">
+      <c r="Q78" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q78" s="4"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
         <v>436</v>
       </c>
@@ -6900,34 +6983,35 @@
         <v>350</v>
       </c>
       <c r="G79" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H79" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I79" s="15">
         <v>1</v>
       </c>
-      <c r="J79" s="48" t="s">
+      <c r="J79" s="15"/>
+      <c r="K79" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4" t="s">
+      <c r="L79" s="4"/>
+      <c r="M79" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="N79" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N79" s="4" t="s">
+      <c r="O79" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="O79" s="4" t="s">
+      <c r="P79" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R79" s="4"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="46" t="s">
         <v>443</v>
       </c>
@@ -6947,36 +7031,37 @@
         <v>350</v>
       </c>
       <c r="G80" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H80" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I80" s="15">
         <v>1</v>
       </c>
-      <c r="J80" s="47" t="s">
+      <c r="J80" s="15"/>
+      <c r="K80" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="K80" s="16">
+      <c r="L80" s="16">
         <v>1</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="M80" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M80" s="4" t="s">
+      <c r="N80" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N80" s="4" t="s">
+      <c r="O80" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="O80" s="4" t="s">
+      <c r="P80" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="4"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
         <v>212</v>
       </c>
@@ -6994,36 +7079,37 @@
         <v>350</v>
       </c>
       <c r="G81" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H81" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I81" s="15">
         <v>1</v>
       </c>
-      <c r="J81" s="48" t="s">
+      <c r="J81" s="15"/>
+      <c r="K81" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="K81" s="15"/>
-      <c r="L81" s="4" t="s">
+      <c r="L81" s="15"/>
+      <c r="M81" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M81" s="4" t="s">
+      <c r="N81" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N81" s="4" t="s">
+      <c r="O81" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O81" s="4" t="s">
+      <c r="P81" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P81" s="4" t="s">
+      <c r="Q81" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q81" s="4"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="4"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
         <v>2</v>
       </c>
@@ -7041,36 +7127,37 @@
         <v>350</v>
       </c>
       <c r="G82" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H82" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I82" s="15">
         <v>1</v>
       </c>
-      <c r="J82" s="48" t="s">
+      <c r="J82" s="15"/>
+      <c r="K82" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="K82" s="15"/>
-      <c r="L82" s="4" t="s">
+      <c r="L82" s="15"/>
+      <c r="M82" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M82" s="4" t="s">
+      <c r="N82" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N82" s="4" t="s">
+      <c r="O82" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O82" s="4" t="s">
+      <c r="P82" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P82" s="4" t="s">
+      <c r="Q82" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q82" s="4"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="4"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
         <v>449</v>
       </c>
@@ -7088,36 +7175,37 @@
         <v>350</v>
       </c>
       <c r="G83" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H83" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I83" s="15">
         <v>1</v>
       </c>
-      <c r="J83" s="47" t="s">
+      <c r="J83" s="15"/>
+      <c r="K83" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="K83" s="16">
+      <c r="L83" s="16">
         <v>1</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="M83" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M83" s="4" t="s">
+      <c r="N83" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N83" s="4" t="s">
+      <c r="O83" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="O83" s="4" t="s">
+      <c r="P83" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="4"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
         <v>382</v>
       </c>
@@ -7135,34 +7223,35 @@
         <v>350</v>
       </c>
       <c r="G84" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H84" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I84" s="15">
         <v>1</v>
       </c>
-      <c r="J84" s="48" t="s">
+      <c r="J84" s="15"/>
+      <c r="K84" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4" t="s">
+      <c r="L84" s="4"/>
+      <c r="M84" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M84" s="4" t="s">
+      <c r="N84" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N84" s="4" t="s">
+      <c r="O84" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="O84" s="4" t="s">
+      <c r="P84" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="4"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
         <v>475</v>
       </c>
@@ -7182,34 +7271,35 @@
         <v>350</v>
       </c>
       <c r="G85" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H85" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I85" s="15">
         <v>1</v>
       </c>
-      <c r="J85" s="48" t="s">
+      <c r="J85" s="15"/>
+      <c r="K85" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4" t="s">
+      <c r="L85" s="4"/>
+      <c r="M85" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="N85" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N85" s="4" t="s">
+      <c r="O85" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="O85" s="4" t="s">
+      <c r="P85" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="4"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
         <v>239</v>
       </c>
@@ -7227,38 +7317,39 @@
         <v>350</v>
       </c>
       <c r="G86" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H86" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I86" s="15">
         <v>1</v>
       </c>
-      <c r="J86" s="48" t="s">
+      <c r="J86" s="15"/>
+      <c r="K86" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="4" t="s">
+      <c r="L86" s="15"/>
+      <c r="M86" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M86" s="4" t="s">
+      <c r="N86" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N86" s="4" t="s">
+      <c r="O86" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O86" s="4" t="s">
+      <c r="P86" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P86" s="4" t="s">
+      <c r="Q86" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q86" s="4" t="s">
+      <c r="R86" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
         <v>222</v>
       </c>
@@ -7276,38 +7367,39 @@
         <v>350</v>
       </c>
       <c r="G87" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H87" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I87" s="15">
         <v>1</v>
       </c>
-      <c r="J87" s="48" t="s">
+      <c r="J87" s="15"/>
+      <c r="K87" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="4" t="s">
+      <c r="L87" s="15"/>
+      <c r="M87" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M87" s="4" t="s">
+      <c r="N87" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N87" s="4" t="s">
+      <c r="O87" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O87" s="4" t="s">
+      <c r="P87" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P87" s="4" t="s">
+      <c r="Q87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q87" s="4" t="s">
+      <c r="R87" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
         <v>429</v>
       </c>
@@ -7325,34 +7417,35 @@
         <v>350</v>
       </c>
       <c r="G88" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H88" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I88" s="15">
         <v>1</v>
       </c>
-      <c r="J88" s="4" t="s">
+      <c r="J88" s="15"/>
+      <c r="K88" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4" t="s">
+      <c r="L88" s="4"/>
+      <c r="M88" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M88" s="4" t="s">
+      <c r="N88" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="O88" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="O88" s="4" t="s">
+      <c r="P88" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="4"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
         <v>452</v>
       </c>
@@ -7370,34 +7463,35 @@
         <v>350</v>
       </c>
       <c r="G89" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H89" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I89" s="15">
         <v>1</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="J89" s="15"/>
+      <c r="K89" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4" t="s">
+      <c r="L89" s="4"/>
+      <c r="M89" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M89" s="4" t="s">
+      <c r="N89" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N89" s="4" t="s">
+      <c r="O89" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="O89" s="4" t="s">
+      <c r="P89" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="4"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
         <v>455</v>
       </c>
@@ -7415,34 +7509,35 @@
         <v>350</v>
       </c>
       <c r="G90" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H90" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I90" s="15">
         <v>1</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="J90" s="15"/>
+      <c r="K90" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4" t="s">
+      <c r="L90" s="4"/>
+      <c r="M90" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M90" s="4" t="s">
+      <c r="N90" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N90" s="4" t="s">
+      <c r="O90" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="O90" s="4" t="s">
+      <c r="P90" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="4"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="46" t="s">
         <v>433</v>
       </c>
@@ -7460,36 +7555,37 @@
         <v>350</v>
       </c>
       <c r="G91" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H91" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I91" s="15">
         <v>1</v>
       </c>
-      <c r="J91" s="47" t="s">
+      <c r="J91" s="15"/>
+      <c r="K91" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="K91" s="16">
+      <c r="L91" s="16">
         <v>1</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="M91" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M91" s="4" t="s">
+      <c r="N91" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N91" s="4" t="s">
+      <c r="O91" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O91" s="4" t="s">
+      <c r="P91" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="4"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="46" t="s">
         <v>247</v>
       </c>
@@ -7507,38 +7603,39 @@
         <v>350</v>
       </c>
       <c r="G92" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H92" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I92" s="15">
         <v>1</v>
       </c>
-      <c r="J92" s="47" t="s">
+      <c r="J92" s="15"/>
+      <c r="K92" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="K92" s="16">
+      <c r="L92" s="16">
         <v>1</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="M92" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="N92" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N92" s="4" t="s">
+      <c r="O92" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O92" s="4" t="s">
+      <c r="P92" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P92" s="4" t="s">
+      <c r="Q92" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q92" s="4"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="4"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
         <v>216</v>
       </c>
@@ -7556,36 +7653,37 @@
         <v>350</v>
       </c>
       <c r="G93" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H93" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I93" s="15">
         <v>1</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="J93" s="15"/>
+      <c r="K93" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K93" s="15"/>
-      <c r="L93" s="4" t="s">
+      <c r="L93" s="15"/>
+      <c r="M93" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M93" s="4" t="s">
+      <c r="N93" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N93" s="4" t="s">
+      <c r="O93" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O93" s="4" t="s">
+      <c r="P93" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="P93" s="4" t="s">
+      <c r="Q93" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q93" s="4"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="4"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
         <v>4</v>
       </c>
@@ -7603,36 +7701,37 @@
         <v>350</v>
       </c>
       <c r="G94" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H94" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I94" s="15">
         <v>1</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="J94" s="15"/>
+      <c r="K94" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="4" t="s">
+      <c r="L94" s="15"/>
+      <c r="M94" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M94" s="4" t="s">
+      <c r="N94" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N94" s="4" t="s">
+      <c r="O94" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="O94" s="4" t="s">
+      <c r="P94" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="P94" s="4" t="s">
+      <c r="Q94" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="4"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="4"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="24" t="s">
         <v>442</v>
       </c>
@@ -7652,34 +7751,35 @@
         <v>350</v>
       </c>
       <c r="G95" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H95" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I95" s="15">
         <v>1</v>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="J95" s="15"/>
+      <c r="K95" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4" t="s">
+      <c r="L95" s="4"/>
+      <c r="M95" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M95" s="4" t="s">
+      <c r="N95" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N95" s="4" t="s">
+      <c r="O95" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="O95" s="4" t="s">
+      <c r="P95" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="4"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="24" t="s">
         <v>5</v>
       </c>
@@ -7697,36 +7797,37 @@
         <v>350</v>
       </c>
       <c r="G96" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H96" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I96" s="15">
         <v>1</v>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="15"/>
+      <c r="K96" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4" t="s">
+      <c r="L96" s="4"/>
+      <c r="M96" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M96" s="4" t="s">
+      <c r="N96" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N96" s="4" t="s">
+      <c r="O96" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O96" s="4" t="s">
+      <c r="P96" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="P96" s="4" t="s">
+      <c r="Q96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q96" s="4"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="4"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="24" t="s">
         <v>211</v>
       </c>
@@ -7746,38 +7847,39 @@
         <v>350</v>
       </c>
       <c r="G97" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H97" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I97" s="15">
         <v>1</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="15"/>
+      <c r="K97" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K97" s="15"/>
-      <c r="L97" s="4" t="s">
+      <c r="L97" s="15"/>
+      <c r="M97" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M97" s="4" t="s">
+      <c r="N97" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N97" s="4" t="s">
+      <c r="O97" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O97" s="4" t="s">
+      <c r="P97" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P97" s="4" t="s">
+      <c r="Q97" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q97" s="4" t="s">
+      <c r="R97" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="24" t="s">
         <v>243</v>
       </c>
@@ -7795,36 +7897,37 @@
         <v>350</v>
       </c>
       <c r="G98" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H98" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I98" s="15">
         <v>1</v>
       </c>
-      <c r="J98" s="4" t="s">
+      <c r="J98" s="15"/>
+      <c r="K98" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K98" s="15"/>
-      <c r="L98" s="4" t="s">
+      <c r="L98" s="15"/>
+      <c r="M98" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M98" s="4" t="s">
+      <c r="N98" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="O98" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="O98" s="4" t="s">
+      <c r="P98" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P98" s="4" t="s">
+      <c r="Q98" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q98" s="4"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="4"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
         <v>219</v>
       </c>
@@ -7842,36 +7945,37 @@
         <v>350</v>
       </c>
       <c r="G99" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H99" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I99" s="15">
         <v>1</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="J99" s="15"/>
+      <c r="K99" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K99" s="15"/>
-      <c r="L99" s="4" t="s">
+      <c r="L99" s="15"/>
+      <c r="M99" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M99" s="4" t="s">
+      <c r="N99" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N99" s="4" t="s">
+      <c r="O99" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O99" s="4" t="s">
+      <c r="P99" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="P99" s="4" t="s">
+      <c r="Q99" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q99" s="4"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="4"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
         <v>483</v>
       </c>
@@ -7891,34 +7995,35 @@
         <v>350</v>
       </c>
       <c r="G100" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H100" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I100" s="15">
         <v>1</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="J100" s="15"/>
+      <c r="K100" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4" t="s">
+      <c r="L100" s="4"/>
+      <c r="M100" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M100" s="4" t="s">
+      <c r="N100" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N100" s="4" t="s">
+      <c r="O100" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O100" s="4" t="s">
+      <c r="P100" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="4"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
         <v>493</v>
       </c>
@@ -7938,34 +8043,35 @@
         <v>350</v>
       </c>
       <c r="G101" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H101" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I101" s="15">
         <v>1</v>
       </c>
-      <c r="J101" s="4" t="s">
+      <c r="J101" s="15"/>
+      <c r="K101" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4" t="s">
+      <c r="L101" s="4"/>
+      <c r="M101" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M101" s="4" t="s">
+      <c r="N101" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N101" s="4" t="s">
+      <c r="O101" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="O101" s="4" t="s">
+      <c r="P101" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="4"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
         <v>434</v>
       </c>
@@ -7983,34 +8089,35 @@
         <v>350</v>
       </c>
       <c r="G102" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H102" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I102" s="15">
         <v>1</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="J102" s="15"/>
+      <c r="K102" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4" t="s">
+      <c r="L102" s="4"/>
+      <c r="M102" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M102" s="4" t="s">
+      <c r="N102" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N102" s="4" t="s">
+      <c r="O102" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O102" s="4" t="s">
+      <c r="P102" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102" s="4"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="24" t="s">
         <v>241</v>
       </c>
@@ -8030,36 +8137,37 @@
         <v>350</v>
       </c>
       <c r="G103" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H103" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I103" s="15">
         <v>1</v>
       </c>
-      <c r="J103" s="4" t="s">
+      <c r="J103" s="15"/>
+      <c r="K103" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K103" s="15"/>
-      <c r="L103" s="4" t="s">
+      <c r="L103" s="15"/>
+      <c r="M103" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M103" s="4" t="s">
+      <c r="N103" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N103" s="4" t="s">
+      <c r="O103" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O103" s="4" t="s">
+      <c r="P103" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="P103" s="4" t="s">
+      <c r="Q103" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q103" s="4"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103" s="4"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="24" t="s">
         <v>345</v>
       </c>
@@ -8077,34 +8185,35 @@
         <v>350</v>
       </c>
       <c r="G104" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H104" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I104" s="15">
         <v>1</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="J104" s="15"/>
+      <c r="K104" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K104" s="15"/>
-      <c r="L104" s="4" t="s">
+      <c r="L104" s="15"/>
+      <c r="M104" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M104" s="4" t="s">
+      <c r="N104" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N104" s="4" t="s">
+      <c r="O104" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="O104" s="4" t="s">
+      <c r="P104" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104" s="4"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="24" t="s">
         <v>208</v>
       </c>
@@ -8122,38 +8231,39 @@
         <v>350</v>
       </c>
       <c r="G105" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H105" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I105" s="15">
         <v>1</v>
       </c>
-      <c r="J105" s="4" t="s">
+      <c r="J105" s="15"/>
+      <c r="K105" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K105" s="15"/>
-      <c r="L105" s="4" t="s">
+      <c r="L105" s="15"/>
+      <c r="M105" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M105" s="4" t="s">
+      <c r="N105" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N105" s="4" t="s">
+      <c r="O105" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="O105" s="4" t="s">
+      <c r="P105" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P105" s="4" t="s">
+      <c r="Q105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q105" s="4" t="s">
+      <c r="R105" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="24" t="s">
         <v>242</v>
       </c>
@@ -8171,36 +8281,37 @@
         <v>350</v>
       </c>
       <c r="G106" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H106" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I106" s="15">
         <v>1</v>
       </c>
-      <c r="J106" s="4" t="s">
+      <c r="J106" s="15"/>
+      <c r="K106" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K106" s="15"/>
-      <c r="L106" s="4" t="s">
+      <c r="L106" s="15"/>
+      <c r="M106" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M106" s="4" t="s">
+      <c r="N106" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N106" s="4" t="s">
+      <c r="O106" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="O106" s="4" t="s">
+      <c r="P106" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="P106" s="4" t="s">
+      <c r="Q106" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q106" s="4"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R106" s="4"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="24" t="s">
         <v>210</v>
       </c>
@@ -8218,36 +8329,37 @@
         <v>350</v>
       </c>
       <c r="G107" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H107" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I107" s="15">
         <v>1</v>
       </c>
-      <c r="J107" s="4" t="s">
+      <c r="J107" s="15"/>
+      <c r="K107" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K107" s="15"/>
-      <c r="L107" s="4" t="s">
+      <c r="L107" s="15"/>
+      <c r="M107" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M107" s="4" t="s">
+      <c r="N107" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N107" s="4" t="s">
+      <c r="O107" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O107" s="4" t="s">
+      <c r="P107" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="P107" s="4" t="s">
+      <c r="Q107" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q107" s="4"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R107" s="4"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
         <v>484</v>
       </c>
@@ -8267,34 +8379,35 @@
         <v>350</v>
       </c>
       <c r="G108" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H108" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I108" s="15">
         <v>1</v>
       </c>
-      <c r="J108" s="4" t="s">
+      <c r="J108" s="15"/>
+      <c r="K108" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4" t="s">
+      <c r="L108" s="4"/>
+      <c r="M108" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M108" s="4" t="s">
+      <c r="N108" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N108" s="4" t="s">
+      <c r="O108" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O108" s="4" t="s">
+      <c r="P108" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="P108" s="4"/>
       <c r="Q108" s="4"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R108" s="4"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
         <v>240</v>
       </c>
@@ -8312,36 +8425,37 @@
         <v>350</v>
       </c>
       <c r="G109" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H109" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I109" s="15">
         <v>1</v>
       </c>
-      <c r="J109" s="4" t="s">
+      <c r="J109" s="15"/>
+      <c r="K109" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K109" s="15"/>
-      <c r="L109" s="4" t="s">
+      <c r="L109" s="15"/>
+      <c r="M109" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M109" s="4" t="s">
+      <c r="N109" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N109" s="4" t="s">
+      <c r="O109" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O109" s="4" t="s">
+      <c r="P109" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P109" s="4" t="s">
+      <c r="Q109" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q109" s="4"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R109" s="4"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
         <v>214</v>
       </c>
@@ -8359,36 +8473,37 @@
         <v>350</v>
       </c>
       <c r="G110" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H110" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I110" s="15">
         <v>1</v>
       </c>
-      <c r="J110" s="4" t="s">
+      <c r="J110" s="15"/>
+      <c r="K110" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K110" s="15"/>
-      <c r="L110" s="4" t="s">
+      <c r="L110" s="15"/>
+      <c r="M110" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M110" s="4" t="s">
+      <c r="N110" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N110" s="4" t="s">
+      <c r="O110" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="O110" s="4" t="s">
+      <c r="P110" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="P110" s="4" t="s">
+      <c r="Q110" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q110" s="4"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R110" s="4"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
         <v>509</v>
       </c>
@@ -8408,34 +8523,35 @@
         <v>350</v>
       </c>
       <c r="G111" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H111" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I111" s="15">
         <v>1</v>
       </c>
-      <c r="J111" s="4" t="s">
+      <c r="J111" s="15"/>
+      <c r="K111" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4" t="s">
+      <c r="L111" s="4"/>
+      <c r="M111" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M111" s="4" t="s">
+      <c r="N111" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N111" s="4" t="s">
+      <c r="O111" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="O111" s="4" t="s">
+      <c r="P111" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R111" s="4"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="24" t="s">
         <v>3</v>
       </c>
@@ -8453,36 +8569,37 @@
         <v>350</v>
       </c>
       <c r="G112" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H112" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I112" s="15">
         <v>1</v>
       </c>
-      <c r="J112" s="4" t="s">
+      <c r="J112" s="15"/>
+      <c r="K112" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K112" s="15"/>
-      <c r="L112" s="4" t="s">
+      <c r="L112" s="15"/>
+      <c r="M112" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M112" s="4" t="s">
+      <c r="N112" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N112" s="4" t="s">
+      <c r="O112" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O112" s="4" t="s">
+      <c r="P112" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P112" s="4" t="s">
+      <c r="Q112" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q112" s="4"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R112" s="4"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="24" t="s">
         <v>445</v>
       </c>
@@ -8502,34 +8619,35 @@
         <v>350</v>
       </c>
       <c r="G113" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H113" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I113" s="15">
         <v>1</v>
       </c>
-      <c r="J113" s="4" t="s">
+      <c r="J113" s="15"/>
+      <c r="K113" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4" t="s">
+      <c r="L113" s="4"/>
+      <c r="M113" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M113" s="4" t="s">
+      <c r="N113" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N113" s="4" t="s">
+      <c r="O113" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O113" s="4" t="s">
+      <c r="P113" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R113" s="4"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="24" t="s">
         <v>215</v>
       </c>
@@ -8547,36 +8665,37 @@
         <v>350</v>
       </c>
       <c r="G114" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H114" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I114" s="15">
         <v>1</v>
       </c>
-      <c r="J114" s="4" t="s">
+      <c r="J114" s="15"/>
+      <c r="K114" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K114" s="15"/>
-      <c r="L114" s="4" t="s">
+      <c r="L114" s="15"/>
+      <c r="M114" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M114" s="4" t="s">
+      <c r="N114" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N114" s="4" t="s">
+      <c r="O114" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O114" s="4" t="s">
+      <c r="P114" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P114" s="4" t="s">
+      <c r="Q114" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q114" s="4"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R114" s="4"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="24" t="s">
         <v>378</v>
       </c>
@@ -8594,34 +8713,35 @@
         <v>350</v>
       </c>
       <c r="G115" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H115" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I115" s="15">
         <v>1</v>
       </c>
-      <c r="J115" s="4" t="s">
+      <c r="J115" s="15"/>
+      <c r="K115" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4" t="s">
+      <c r="L115" s="4"/>
+      <c r="M115" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M115" s="4" t="s">
+      <c r="N115" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N115" s="4" t="s">
+      <c r="O115" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O115" s="4" t="s">
+      <c r="P115" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R115" s="4"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="24" t="s">
         <v>207</v>
       </c>
@@ -8639,36 +8759,37 @@
         <v>350</v>
       </c>
       <c r="G116" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H116" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I116" s="15">
         <v>1</v>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J116" s="15"/>
+      <c r="K116" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K116" s="15"/>
-      <c r="L116" s="4" t="s">
+      <c r="L116" s="15"/>
+      <c r="M116" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M116" s="4" t="s">
+      <c r="N116" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="N116" s="4" t="s">
+      <c r="O116" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="O116" s="4" t="s">
+      <c r="P116" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="P116" s="4" t="s">
+      <c r="Q116" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q116" s="4"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R116" s="4"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="24" t="s">
         <v>244</v>
       </c>
@@ -8686,36 +8807,37 @@
         <v>350</v>
       </c>
       <c r="G117" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H117" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I117" s="15">
         <v>1</v>
       </c>
-      <c r="J117" s="4" t="s">
+      <c r="J117" s="15"/>
+      <c r="K117" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K117" s="15"/>
-      <c r="L117" s="4" t="s">
+      <c r="L117" s="15"/>
+      <c r="M117" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M117" s="4" t="s">
+      <c r="N117" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N117" s="4" t="s">
+      <c r="O117" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O117" s="4" t="s">
+      <c r="P117" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P117" s="4" t="s">
+      <c r="Q117" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Q117" s="4"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R117" s="4"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="24" t="s">
         <v>280</v>
       </c>
@@ -8733,36 +8855,37 @@
         <v>350</v>
       </c>
       <c r="G118" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H118" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I118" s="15">
         <v>1</v>
       </c>
-      <c r="J118" s="4" t="s">
+      <c r="J118" s="15"/>
+      <c r="K118" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="K118" s="15"/>
-      <c r="L118" s="4" t="s">
+      <c r="L118" s="15"/>
+      <c r="M118" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M118" s="4" t="s">
+      <c r="N118" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N118" s="4" t="s">
+      <c r="O118" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O118" s="4" t="s">
+      <c r="P118" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P118" s="4" t="s">
+      <c r="Q118" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="Q118" s="4"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R118" s="4"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="25" t="s">
         <v>246</v>
       </c>
@@ -8780,40 +8903,41 @@
         <v>350</v>
       </c>
       <c r="G119" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H119" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="I119" s="16">
         <v>1</v>
       </c>
-      <c r="J119" s="6" t="s">
+      <c r="J119" s="16"/>
+      <c r="K119" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K119" s="16">
+      <c r="L119" s="16">
         <v>1</v>
       </c>
-      <c r="L119" s="6" t="s">
+      <c r="M119" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M119" s="6" t="s">
+      <c r="N119" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="N119" s="6" t="s">
+      <c r="O119" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="O119" s="6" t="s">
+      <c r="P119" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="P119" s="45" t="s">
+      <c r="Q119" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="Q119" s="45" t="s">
+      <c r="R119" s="45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="25" t="s">
         <v>0</v>
       </c>
@@ -8831,38 +8955,39 @@
         <v>350</v>
       </c>
       <c r="G120" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H120" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="I120" s="16">
         <v>1</v>
       </c>
-      <c r="J120" s="6" t="s">
+      <c r="J120" s="16"/>
+      <c r="K120" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K120" s="16">
+      <c r="L120" s="16">
         <v>1</v>
       </c>
-      <c r="L120" s="6" t="s">
+      <c r="M120" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M120" s="6" t="s">
+      <c r="N120" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N120" s="6" t="s">
+      <c r="O120" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="O120" s="6" t="s">
+      <c r="P120" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P120" s="45" t="s">
+      <c r="Q120" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="Q120" s="45"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R120" s="45"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="25" t="s">
         <v>217</v>
       </c>
@@ -8880,38 +9005,39 @@
         <v>350</v>
       </c>
       <c r="G121" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H121" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="I121" s="16">
         <v>1</v>
       </c>
-      <c r="J121" s="6" t="s">
+      <c r="J121" s="16"/>
+      <c r="K121" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K121" s="16">
+      <c r="L121" s="16">
         <v>1</v>
       </c>
-      <c r="L121" s="6" t="s">
+      <c r="M121" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M121" s="6" t="s">
+      <c r="N121" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N121" s="6" t="s">
+      <c r="O121" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="O121" s="6" t="s">
+      <c r="P121" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="P121" s="45" t="s">
+      <c r="Q121" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q121" s="45"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R121" s="45"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="25" t="s">
         <v>218</v>
       </c>
@@ -8929,38 +9055,39 @@
         <v>350</v>
       </c>
       <c r="G122" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H122" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="I122" s="16">
         <v>1</v>
       </c>
-      <c r="J122" s="6" t="s">
+      <c r="J122" s="16"/>
+      <c r="K122" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K122" s="16">
+      <c r="L122" s="16">
         <v>1</v>
       </c>
-      <c r="L122" s="6" t="s">
+      <c r="M122" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M122" s="6" t="s">
+      <c r="N122" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N122" s="6" t="s">
+      <c r="O122" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O122" s="6" t="s">
+      <c r="P122" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="P122" s="45" t="s">
+      <c r="Q122" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="Q122" s="45"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R122" s="45"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="25" t="s">
         <v>220</v>
       </c>
@@ -8978,38 +9105,39 @@
         <v>350</v>
       </c>
       <c r="G123" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H123" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="I123" s="16">
         <v>1</v>
       </c>
-      <c r="J123" s="6" t="s">
+      <c r="J123" s="16"/>
+      <c r="K123" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K123" s="16">
+      <c r="L123" s="16">
         <v>1</v>
       </c>
-      <c r="L123" s="6" t="s">
+      <c r="M123" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M123" s="6" t="s">
+      <c r="N123" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="N123" s="6" t="s">
+      <c r="O123" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="O123" s="6" t="s">
+      <c r="P123" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="P123" s="45" t="s">
+      <c r="Q123" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="Q123" s="45"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R123" s="45"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
         <v>249</v>
       </c>
@@ -9027,38 +9155,39 @@
         <v>350</v>
       </c>
       <c r="G124" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H124" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="I124" s="16">
         <v>1</v>
       </c>
-      <c r="J124" s="6" t="s">
+      <c r="J124" s="16"/>
+      <c r="K124" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K124" s="16">
+      <c r="L124" s="16">
         <v>1</v>
       </c>
-      <c r="L124" s="6" t="s">
+      <c r="M124" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M124" s="6" t="s">
+      <c r="N124" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N124" s="6" t="s">
+      <c r="O124" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O124" s="6" t="s">
+      <c r="P124" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P124" s="45" t="s">
+      <c r="Q124" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="Q124" s="45"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R124" s="45"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="25" t="s">
         <v>71</v>
       </c>
@@ -9076,38 +9205,39 @@
         <v>350</v>
       </c>
       <c r="G125" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H125" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="I125" s="16">
         <v>1</v>
       </c>
-      <c r="J125" s="6" t="s">
+      <c r="J125" s="16"/>
+      <c r="K125" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K125" s="16">
+      <c r="L125" s="16">
         <v>1</v>
       </c>
-      <c r="L125" s="6" t="s">
+      <c r="M125" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M125" s="6" t="s">
+      <c r="N125" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N125" s="6" t="s">
+      <c r="O125" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O125" s="6" t="s">
+      <c r="P125" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P125" s="45" t="s">
+      <c r="Q125" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="Q125" s="45"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R125" s="45"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="25" t="s">
         <v>209</v>
       </c>
@@ -9125,40 +9255,41 @@
         <v>350</v>
       </c>
       <c r="G126" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H126" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="I126" s="16">
         <v>1</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="J126" s="16"/>
+      <c r="K126" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K126" s="16">
+      <c r="L126" s="16">
         <v>2</v>
       </c>
-      <c r="L126" s="6" t="s">
+      <c r="M126" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="M126" s="6" t="s">
+      <c r="N126" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N126" s="6" t="s">
+      <c r="O126" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="O126" s="6" t="s">
+      <c r="P126" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P126" s="45" t="s">
+      <c r="Q126" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="Q126" s="45" t="s">
+      <c r="R126" s="45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="25" t="s">
         <v>221</v>
       </c>
@@ -9178,38 +9309,39 @@
         <v>350</v>
       </c>
       <c r="G127" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H127" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="I127" s="16">
         <v>1</v>
       </c>
-      <c r="J127" s="6" t="s">
+      <c r="J127" s="16"/>
+      <c r="K127" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K127" s="16">
+      <c r="L127" s="16">
         <v>1</v>
       </c>
-      <c r="L127" s="6" t="s">
+      <c r="M127" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M127" s="6" t="s">
+      <c r="N127" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N127" s="6" t="s">
+      <c r="O127" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O127" s="6" t="s">
+      <c r="P127" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="P127" s="45" t="s">
+      <c r="Q127" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="Q127" s="45"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R127" s="45"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="26" t="s">
         <v>252</v>
       </c>
@@ -9227,38 +9359,39 @@
         <v>350</v>
       </c>
       <c r="G128" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H128" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I128" s="17">
         <v>2</v>
       </c>
-      <c r="J128" s="10"/>
-      <c r="K128" s="17">
+      <c r="J128" s="17"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="17">
         <v>2</v>
       </c>
-      <c r="L128" s="10" t="s">
+      <c r="M128" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M128" s="10" t="s">
+      <c r="N128" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="N128" s="10" t="s">
+      <c r="O128" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="O128" s="10" t="s">
+      <c r="P128" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="P128" s="10" t="s">
+      <c r="Q128" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q128" s="10" t="s">
+      <c r="R128" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="26" t="s">
         <v>232</v>
       </c>
@@ -9276,36 +9409,37 @@
         <v>350</v>
       </c>
       <c r="G129" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H129" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H129" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I129" s="17">
         <v>2</v>
       </c>
-      <c r="J129" s="10"/>
-      <c r="K129" s="17">
+      <c r="J129" s="17"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="17">
         <v>2</v>
       </c>
-      <c r="L129" s="10" t="s">
+      <c r="M129" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M129" s="10" t="s">
+      <c r="N129" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="N129" s="10" t="s">
+      <c r="O129" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="O129" s="10" t="s">
+      <c r="P129" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="P129" s="10" t="s">
+      <c r="Q129" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q129" s="10"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R129" s="10"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="26" t="s">
         <v>383</v>
       </c>
@@ -9323,34 +9457,35 @@
         <v>350</v>
       </c>
       <c r="G130" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H130" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H130" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I130" s="17">
         <v>2</v>
       </c>
-      <c r="J130" s="26"/>
-      <c r="K130" s="17">
+      <c r="J130" s="17"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="17">
         <v>2</v>
       </c>
-      <c r="L130" s="10" t="s">
+      <c r="M130" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M130" s="10" t="s">
+      <c r="N130" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="N130" s="10" t="s">
+      <c r="O130" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="O130" s="10" t="s">
+      <c r="P130" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="P130" s="10"/>
       <c r="Q130" s="10"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R130" s="10"/>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="26" t="s">
         <v>236</v>
       </c>
@@ -9368,36 +9503,37 @@
         <v>350</v>
       </c>
       <c r="G131" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H131" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I131" s="17">
         <v>2</v>
       </c>
-      <c r="J131" s="10"/>
-      <c r="K131" s="17">
+      <c r="J131" s="17"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="17">
         <v>2</v>
       </c>
-      <c r="L131" s="10" t="s">
+      <c r="M131" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M131" s="10" t="s">
+      <c r="N131" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N131" s="10" t="s">
+      <c r="O131" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="O131" s="10" t="s">
+      <c r="P131" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="P131" s="10" t="s">
+      <c r="Q131" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q131" s="10"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R131" s="10"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="26" t="s">
         <v>223</v>
       </c>
@@ -9415,36 +9551,37 @@
         <v>350</v>
       </c>
       <c r="G132" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H132" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I132" s="17">
         <v>2</v>
       </c>
-      <c r="J132" s="10"/>
-      <c r="K132" s="17">
+      <c r="J132" s="17"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="17">
         <v>2</v>
       </c>
-      <c r="L132" s="10" t="s">
+      <c r="M132" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M132" s="10" t="s">
+      <c r="N132" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N132" s="10" t="s">
+      <c r="O132" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O132" s="10" t="s">
+      <c r="P132" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="P132" s="10" t="s">
+      <c r="Q132" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Q132" s="10"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R132" s="10"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="26" t="s">
         <v>473</v>
       </c>
@@ -9464,34 +9601,35 @@
         <v>350</v>
       </c>
       <c r="G133" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H133" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I133" s="17">
         <v>2</v>
       </c>
-      <c r="J133" s="26"/>
-      <c r="K133" s="17">
+      <c r="J133" s="17"/>
+      <c r="K133" s="26"/>
+      <c r="L133" s="17">
         <v>1</v>
       </c>
-      <c r="L133" s="10" t="s">
+      <c r="M133" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M133" s="10" t="s">
+      <c r="N133" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N133" s="10" t="s">
+      <c r="O133" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="O133" s="10" t="s">
+      <c r="P133" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="P133" s="10"/>
       <c r="Q133" s="10"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R133" s="10"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="26" t="s">
         <v>237</v>
       </c>
@@ -9509,36 +9647,37 @@
         <v>350</v>
       </c>
       <c r="G134" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H134" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I134" s="17">
         <v>2</v>
       </c>
-      <c r="J134" s="10"/>
-      <c r="K134" s="17">
+      <c r="J134" s="17"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="17">
         <v>2</v>
       </c>
-      <c r="L134" s="10" t="s">
+      <c r="M134" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M134" s="10" t="s">
+      <c r="N134" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N134" s="10" t="s">
+      <c r="O134" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="O134" s="10" t="s">
+      <c r="P134" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="P134" s="10" t="s">
+      <c r="Q134" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q134" s="10"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R134" s="10"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="26" t="s">
         <v>487</v>
       </c>
@@ -9558,34 +9697,35 @@
         <v>350</v>
       </c>
       <c r="G135" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H135" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I135" s="17">
         <v>2</v>
       </c>
-      <c r="J135" s="10"/>
-      <c r="K135" s="17">
+      <c r="J135" s="17"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="17">
         <v>2</v>
       </c>
-      <c r="L135" s="10" t="s">
+      <c r="M135" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M135" s="10" t="s">
+      <c r="N135" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N135" s="10" t="s">
+      <c r="O135" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="O135" s="10" t="s">
+      <c r="P135" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="P135" s="10"/>
       <c r="Q135" s="10"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R135" s="10"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="26" t="s">
         <v>387</v>
       </c>
@@ -9603,34 +9743,35 @@
         <v>350</v>
       </c>
       <c r="G136" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H136" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I136" s="17">
         <v>2</v>
       </c>
-      <c r="J136" s="26"/>
-      <c r="K136" s="17">
+      <c r="J136" s="17"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="17">
         <v>2</v>
       </c>
-      <c r="L136" s="10" t="s">
+      <c r="M136" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M136" s="10" t="s">
+      <c r="N136" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N136" s="10" t="s">
+      <c r="O136" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="O136" s="10" t="s">
+      <c r="P136" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="P136" s="10"/>
       <c r="Q136" s="10"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R136" s="10"/>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="26" t="s">
         <v>226</v>
       </c>
@@ -9648,36 +9789,37 @@
         <v>350</v>
       </c>
       <c r="G137" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H137" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H137" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I137" s="17">
         <v>2</v>
       </c>
-      <c r="J137" s="10"/>
-      <c r="K137" s="17">
+      <c r="J137" s="17"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="17">
         <v>2</v>
       </c>
-      <c r="L137" s="10" t="s">
+      <c r="M137" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M137" s="10" t="s">
+      <c r="N137" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N137" s="10" t="s">
+      <c r="O137" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="O137" s="10" t="s">
+      <c r="P137" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="P137" s="10" t="s">
+      <c r="Q137" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="Q137" s="10"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R137" s="10"/>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="26" t="s">
         <v>227</v>
       </c>
@@ -9695,36 +9837,37 @@
         <v>350</v>
       </c>
       <c r="G138" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H138" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H138" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I138" s="17">
         <v>2</v>
       </c>
-      <c r="J138" s="10"/>
-      <c r="K138" s="17">
+      <c r="J138" s="17"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="17">
         <v>2</v>
       </c>
-      <c r="L138" s="10" t="s">
+      <c r="M138" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M138" s="10" t="s">
+      <c r="N138" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N138" s="10" t="s">
+      <c r="O138" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="O138" s="10" t="s">
+      <c r="P138" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="P138" s="10" t="s">
+      <c r="Q138" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="Q138" s="10"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R138" s="10"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="26" t="s">
         <v>2</v>
       </c>
@@ -9742,36 +9885,37 @@
         <v>350</v>
       </c>
       <c r="G139" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H139" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H139" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I139" s="17">
         <v>2</v>
       </c>
-      <c r="J139" s="10"/>
-      <c r="K139" s="17">
+      <c r="J139" s="17"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="17">
         <v>2</v>
       </c>
-      <c r="L139" s="10" t="s">
+      <c r="M139" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M139" s="10" t="s">
+      <c r="N139" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N139" s="10" t="s">
+      <c r="O139" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O139" s="10" t="s">
+      <c r="P139" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="P139" s="10" t="s">
+      <c r="Q139" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q139" s="10"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R139" s="10"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="26" t="s">
         <v>477</v>
       </c>
@@ -9791,34 +9935,35 @@
         <v>350</v>
       </c>
       <c r="G140" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H140" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H140" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I140" s="17">
         <v>2</v>
       </c>
-      <c r="J140" s="26"/>
-      <c r="K140" s="17">
+      <c r="J140" s="17"/>
+      <c r="K140" s="26"/>
+      <c r="L140" s="17">
         <v>1</v>
       </c>
-      <c r="L140" s="10" t="s">
+      <c r="M140" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M140" s="10" t="s">
+      <c r="N140" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="N140" s="10" t="s">
+      <c r="O140" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="O140" s="10" t="s">
+      <c r="P140" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="P140" s="10"/>
       <c r="Q140" s="10"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R140" s="10"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="26" t="s">
         <v>501</v>
       </c>
@@ -9838,34 +9983,35 @@
         <v>350</v>
       </c>
       <c r="G141" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H141" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I141" s="17">
         <v>2</v>
       </c>
-      <c r="J141" s="26"/>
-      <c r="K141" s="17">
+      <c r="J141" s="17"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="17">
         <v>1</v>
       </c>
-      <c r="L141" s="10" t="s">
+      <c r="M141" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M141" s="10" t="s">
+      <c r="N141" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N141" s="10" t="s">
+      <c r="O141" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="O141" s="10" t="s">
+      <c r="P141" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="P141" s="10"/>
       <c r="Q141" s="10"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R141" s="10"/>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="26" t="s">
         <v>502</v>
       </c>
@@ -9885,34 +10031,35 @@
         <v>350</v>
       </c>
       <c r="G142" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H142" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I142" s="17">
         <v>2</v>
       </c>
-      <c r="J142" s="26"/>
-      <c r="K142" s="17">
+      <c r="J142" s="17"/>
+      <c r="K142" s="26"/>
+      <c r="L142" s="17">
         <v>2</v>
       </c>
-      <c r="L142" s="10" t="s">
+      <c r="M142" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M142" s="10" t="s">
+      <c r="N142" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N142" s="10" t="s">
+      <c r="O142" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="O142" s="10" t="s">
+      <c r="P142" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="P142" s="10"/>
       <c r="Q142" s="10"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R142" s="10"/>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="26" t="s">
         <v>453</v>
       </c>
@@ -9930,34 +10077,35 @@
         <v>350</v>
       </c>
       <c r="G143" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H143" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I143" s="17">
         <v>2</v>
       </c>
-      <c r="J143" s="26"/>
-      <c r="K143" s="17">
+      <c r="J143" s="17"/>
+      <c r="K143" s="26"/>
+      <c r="L143" s="17">
         <v>2</v>
       </c>
-      <c r="L143" s="10" t="s">
+      <c r="M143" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="M143" s="10" t="s">
+      <c r="N143" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N143" s="10" t="s">
+      <c r="O143" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="O143" s="10" t="s">
+      <c r="P143" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="P143" s="10"/>
       <c r="Q143" s="10"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R143" s="10"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="26" t="s">
         <v>464</v>
       </c>
@@ -9977,34 +10125,35 @@
         <v>350</v>
       </c>
       <c r="G144" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H144" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H144" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I144" s="17">
         <v>2</v>
       </c>
-      <c r="J144" s="26"/>
-      <c r="K144" s="17">
+      <c r="J144" s="17"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="17">
         <v>1</v>
       </c>
-      <c r="L144" s="10" t="s">
+      <c r="M144" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="M144" s="10" t="s">
+      <c r="N144" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="N144" s="10" t="s">
+      <c r="O144" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="O144" s="10" t="s">
+      <c r="P144" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R144" s="10"/>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="26" t="s">
         <v>471</v>
       </c>
@@ -10024,34 +10173,35 @@
         <v>350</v>
       </c>
       <c r="G145" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H145" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H145" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I145" s="17">
         <v>2</v>
       </c>
-      <c r="J145" s="26"/>
-      <c r="K145" s="17">
+      <c r="J145" s="17"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="17">
         <v>1</v>
       </c>
-      <c r="L145" s="10" t="s">
+      <c r="M145" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M145" s="10" t="s">
+      <c r="N145" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N145" s="10" t="s">
+      <c r="O145" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O145" s="10" t="s">
+      <c r="P145" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="P145" s="10"/>
       <c r="Q145" s="10"/>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R145" s="10"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="26" t="s">
         <v>248</v>
       </c>
@@ -10069,36 +10219,37 @@
         <v>350</v>
       </c>
       <c r="G146" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H146" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H146" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I146" s="17">
         <v>2</v>
       </c>
-      <c r="J146" s="10"/>
-      <c r="K146" s="17">
+      <c r="J146" s="17"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="17">
         <v>2</v>
       </c>
-      <c r="L146" s="10" t="s">
+      <c r="M146" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M146" s="10" t="s">
+      <c r="N146" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N146" s="10" t="s">
+      <c r="O146" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="O146" s="10" t="s">
+      <c r="P146" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="P146" s="10" t="s">
+      <c r="Q146" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q146" s="10"/>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R146" s="10"/>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="26" t="s">
         <v>388</v>
       </c>
@@ -10116,34 +10267,35 @@
         <v>350</v>
       </c>
       <c r="G147" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H147" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H147" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I147" s="17">
         <v>2</v>
       </c>
-      <c r="J147" s="26"/>
-      <c r="K147" s="17">
+      <c r="J147" s="17"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="17">
         <v>2</v>
       </c>
-      <c r="L147" s="10" t="s">
+      <c r="M147" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M147" s="10" t="s">
+      <c r="N147" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N147" s="10" t="s">
+      <c r="O147" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="O147" s="10" t="s">
+      <c r="P147" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="P147" s="10"/>
       <c r="Q147" s="10"/>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R147" s="10"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="26" t="s">
         <v>235</v>
       </c>
@@ -10161,36 +10313,37 @@
         <v>350</v>
       </c>
       <c r="G148" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H148" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H148" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I148" s="17">
         <v>2</v>
       </c>
-      <c r="J148" s="10"/>
-      <c r="K148" s="17">
+      <c r="J148" s="17"/>
+      <c r="K148" s="10"/>
+      <c r="L148" s="17">
         <v>2</v>
       </c>
-      <c r="L148" s="10" t="s">
+      <c r="M148" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M148" s="10" t="s">
+      <c r="N148" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="N148" s="10" t="s">
+      <c r="O148" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="O148" s="10" t="s">
+      <c r="P148" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="P148" s="10" t="s">
+      <c r="Q148" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q148" s="10"/>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R148" s="10"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="26" t="s">
         <v>410</v>
       </c>
@@ -10208,34 +10361,35 @@
         <v>350</v>
       </c>
       <c r="G149" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H149" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H149" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I149" s="17">
         <v>2</v>
       </c>
-      <c r="J149" s="26"/>
-      <c r="K149" s="17">
+      <c r="J149" s="17"/>
+      <c r="K149" s="26"/>
+      <c r="L149" s="17">
         <v>2</v>
       </c>
-      <c r="L149" s="10" t="s">
+      <c r="M149" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M149" s="10" t="s">
+      <c r="N149" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="N149" s="10" t="s">
+      <c r="O149" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="O149" s="10" t="s">
+      <c r="P149" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="P149" s="10"/>
       <c r="Q149" s="10"/>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R149" s="10"/>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="26" t="s">
         <v>5</v>
       </c>
@@ -10253,36 +10407,37 @@
         <v>350</v>
       </c>
       <c r="G150" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H150" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H150" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I150" s="17">
         <v>2</v>
       </c>
-      <c r="J150" s="10"/>
-      <c r="K150" s="17">
+      <c r="J150" s="17"/>
+      <c r="K150" s="10"/>
+      <c r="L150" s="17">
         <v>2</v>
       </c>
-      <c r="L150" s="10" t="s">
+      <c r="M150" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M150" s="10" t="s">
+      <c r="N150" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N150" s="10" t="s">
+      <c r="O150" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O150" s="10" t="s">
+      <c r="P150" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="P150" s="10" t="s">
+      <c r="Q150" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q150" s="10"/>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R150" s="10"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="26" t="s">
         <v>490</v>
       </c>
@@ -10302,34 +10457,35 @@
         <v>350</v>
       </c>
       <c r="G151" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H151" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H151" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I151" s="17">
         <v>2</v>
       </c>
-      <c r="J151" s="26"/>
-      <c r="K151" s="17">
+      <c r="J151" s="17"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="17">
         <v>1</v>
       </c>
-      <c r="L151" s="10" t="s">
+      <c r="M151" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M151" s="10" t="s">
+      <c r="N151" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N151" s="10" t="s">
+      <c r="O151" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="O151" s="10" t="s">
+      <c r="P151" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="P151" s="10"/>
       <c r="Q151" s="10"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R151" s="10"/>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="26" t="s">
         <v>491</v>
       </c>
@@ -10349,34 +10505,35 @@
         <v>350</v>
       </c>
       <c r="G152" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H152" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H152" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I152" s="17">
         <v>2</v>
       </c>
-      <c r="J152" s="26"/>
-      <c r="K152" s="17">
+      <c r="J152" s="17"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="17">
         <v>2</v>
       </c>
-      <c r="L152" s="10" t="s">
+      <c r="M152" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M152" s="10" t="s">
+      <c r="N152" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N152" s="10" t="s">
+      <c r="O152" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="O152" s="10" t="s">
+      <c r="P152" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="P152" s="10"/>
       <c r="Q152" s="10"/>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R152" s="10"/>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="26" t="s">
         <v>326</v>
       </c>
@@ -10396,36 +10553,37 @@
         <v>350</v>
       </c>
       <c r="G153" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H153" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H153" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I153" s="17">
         <v>2</v>
       </c>
-      <c r="J153" s="10"/>
-      <c r="K153" s="17">
+      <c r="J153" s="17"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="17">
         <v>1</v>
       </c>
-      <c r="L153" s="10" t="s">
+      <c r="M153" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M153" s="10" t="s">
+      <c r="N153" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N153" s="10" t="s">
+      <c r="O153" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O153" s="10" t="s">
+      <c r="P153" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="P153" s="10" t="s">
+      <c r="Q153" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q153" s="10"/>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R153" s="10"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="26" t="s">
         <v>225</v>
       </c>
@@ -10445,38 +10603,39 @@
         <v>350</v>
       </c>
       <c r="G154" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H154" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H154" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I154" s="17">
         <v>2</v>
       </c>
-      <c r="J154" s="10"/>
-      <c r="K154" s="17">
+      <c r="J154" s="17"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="17">
         <v>2</v>
       </c>
-      <c r="L154" s="10" t="s">
+      <c r="M154" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M154" s="10" t="s">
+      <c r="N154" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N154" s="10" t="s">
+      <c r="O154" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O154" s="10" t="s">
+      <c r="P154" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="P154" s="10" t="s">
+      <c r="Q154" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q154" s="10" t="s">
+      <c r="R154" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="26" t="s">
         <v>251</v>
       </c>
@@ -10494,38 +10653,39 @@
         <v>350</v>
       </c>
       <c r="G155" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H155" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H155" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I155" s="17">
         <v>2</v>
       </c>
-      <c r="J155" s="10"/>
-      <c r="K155" s="17">
+      <c r="J155" s="17"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="17">
         <v>2</v>
       </c>
-      <c r="L155" s="10" t="s">
+      <c r="M155" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="M155" s="10" t="s">
+      <c r="N155" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="N155" s="10" t="s">
+      <c r="O155" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="O155" s="10" t="s">
+      <c r="P155" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="P155" s="10" t="s">
+      <c r="Q155" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q155" s="10" t="s">
+      <c r="R155" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="26" t="s">
         <v>253</v>
       </c>
@@ -10543,36 +10703,37 @@
         <v>350</v>
       </c>
       <c r="G156" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H156" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H156" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I156" s="17">
         <v>2</v>
       </c>
-      <c r="J156" s="10"/>
-      <c r="K156" s="17">
+      <c r="J156" s="17"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="17">
         <v>2</v>
       </c>
-      <c r="L156" s="10" t="s">
+      <c r="M156" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M156" s="10" t="s">
+      <c r="N156" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N156" s="10" t="s">
+      <c r="O156" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="O156" s="10" t="s">
+      <c r="P156" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="P156" s="10" t="s">
+      <c r="Q156" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Q156" s="10"/>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R156" s="10"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="26" t="s">
         <v>384</v>
       </c>
@@ -10590,34 +10751,35 @@
         <v>350</v>
       </c>
       <c r="G157" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H157" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H157" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I157" s="17">
         <v>2</v>
       </c>
-      <c r="J157" s="26"/>
-      <c r="K157" s="17">
+      <c r="J157" s="17"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="17">
         <v>2</v>
       </c>
-      <c r="L157" s="10" t="s">
+      <c r="M157" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M157" s="10" t="s">
+      <c r="N157" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N157" s="10" t="s">
+      <c r="O157" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O157" s="10" t="s">
+      <c r="P157" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="P157" s="10"/>
       <c r="Q157" s="10"/>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R157" s="10"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="26" t="s">
         <v>385</v>
       </c>
@@ -10635,34 +10797,35 @@
         <v>350</v>
       </c>
       <c r="G158" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H158" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H158" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I158" s="17">
         <v>2</v>
       </c>
-      <c r="J158" s="26"/>
-      <c r="K158" s="17">
+      <c r="J158" s="17"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="17">
         <v>2</v>
       </c>
-      <c r="L158" s="10" t="s">
+      <c r="M158" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M158" s="10" t="s">
+      <c r="N158" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N158" s="10" t="s">
+      <c r="O158" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O158" s="10" t="s">
+      <c r="P158" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="P158" s="10"/>
       <c r="Q158" s="10"/>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R158" s="10"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" s="26" t="s">
         <v>386</v>
       </c>
@@ -10680,34 +10843,35 @@
         <v>350</v>
       </c>
       <c r="G159" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H159" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H159" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I159" s="17">
         <v>2</v>
       </c>
-      <c r="J159" s="26"/>
-      <c r="K159" s="17">
+      <c r="J159" s="17"/>
+      <c r="K159" s="26"/>
+      <c r="L159" s="17">
         <v>2</v>
       </c>
-      <c r="L159" s="10" t="s">
+      <c r="M159" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M159" s="10" t="s">
+      <c r="N159" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N159" s="10" t="s">
+      <c r="O159" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O159" s="10" t="s">
+      <c r="P159" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="P159" s="10"/>
       <c r="Q159" s="10"/>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R159" s="10"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="26" t="s">
         <v>466</v>
       </c>
@@ -10727,34 +10891,35 @@
         <v>350</v>
       </c>
       <c r="G160" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H160" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H160" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I160" s="17">
         <v>2</v>
       </c>
-      <c r="J160" s="26"/>
-      <c r="K160" s="17">
+      <c r="J160" s="17"/>
+      <c r="K160" s="26"/>
+      <c r="L160" s="17">
         <v>1</v>
       </c>
-      <c r="L160" s="10" t="s">
+      <c r="M160" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="M160" s="10" t="s">
+      <c r="N160" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="N160" s="10" t="s">
+      <c r="O160" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="O160" s="10" t="s">
+      <c r="P160" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="P160" s="10"/>
       <c r="Q160" s="10"/>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R160" s="10"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="26" t="s">
         <v>425</v>
       </c>
@@ -10772,34 +10937,35 @@
         <v>350</v>
       </c>
       <c r="G161" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H161" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H161" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I161" s="17">
         <v>2</v>
       </c>
-      <c r="J161" s="26"/>
-      <c r="K161" s="17">
+      <c r="J161" s="17"/>
+      <c r="K161" s="26"/>
+      <c r="L161" s="17">
         <v>2</v>
       </c>
-      <c r="L161" s="10" t="s">
+      <c r="M161" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M161" s="10" t="s">
+      <c r="N161" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N161" s="10" t="s">
+      <c r="O161" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="O161" s="10" t="s">
+      <c r="P161" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="P161" s="10"/>
       <c r="Q161" s="10"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R161" s="10"/>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="26" t="s">
         <v>377</v>
       </c>
@@ -10817,34 +10983,35 @@
         <v>350</v>
       </c>
       <c r="G162" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H162" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H162" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I162" s="17">
         <v>2</v>
       </c>
-      <c r="J162" s="10"/>
-      <c r="K162" s="17">
+      <c r="J162" s="17"/>
+      <c r="K162" s="10"/>
+      <c r="L162" s="17">
         <v>2</v>
       </c>
-      <c r="L162" s="10" t="s">
+      <c r="M162" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M162" s="10" t="s">
+      <c r="N162" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N162" s="10" t="s">
+      <c r="O162" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="O162" s="10" t="s">
+      <c r="P162" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="P162" s="10"/>
       <c r="Q162" s="10"/>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R162" s="10"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="26" t="s">
         <v>395</v>
       </c>
@@ -10862,34 +11029,35 @@
         <v>350</v>
       </c>
       <c r="G163" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H163" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H163" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I163" s="17">
         <v>2</v>
       </c>
-      <c r="J163" s="26"/>
-      <c r="K163" s="17">
+      <c r="J163" s="17"/>
+      <c r="K163" s="26"/>
+      <c r="L163" s="17">
         <v>2</v>
       </c>
-      <c r="L163" s="10" t="s">
+      <c r="M163" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M163" s="10" t="s">
+      <c r="N163" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N163" s="10" t="s">
+      <c r="O163" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="O163" s="10" t="s">
+      <c r="P163" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="P163" s="10"/>
       <c r="Q163" s="10"/>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R163" s="10"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="26" t="s">
         <v>460</v>
       </c>
@@ -10909,34 +11077,35 @@
         <v>350</v>
       </c>
       <c r="G164" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H164" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H164" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I164" s="17">
         <v>2</v>
       </c>
-      <c r="J164" s="26"/>
-      <c r="K164" s="17">
+      <c r="J164" s="17"/>
+      <c r="K164" s="26"/>
+      <c r="L164" s="17">
         <v>1</v>
       </c>
-      <c r="L164" s="10" t="s">
+      <c r="M164" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M164" s="10" t="s">
+      <c r="N164" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N164" s="10" t="s">
+      <c r="O164" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="O164" s="10" t="s">
+      <c r="P164" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="P164" s="10"/>
       <c r="Q164" s="10"/>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R164" s="10"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="26" t="s">
         <v>461</v>
       </c>
@@ -10956,34 +11125,35 @@
         <v>350</v>
       </c>
       <c r="G165" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H165" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H165" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I165" s="17">
         <v>2</v>
       </c>
-      <c r="J165" s="26"/>
-      <c r="K165" s="17">
+      <c r="J165" s="17"/>
+      <c r="K165" s="26"/>
+      <c r="L165" s="17">
         <v>2</v>
       </c>
-      <c r="L165" s="10" t="s">
+      <c r="M165" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M165" s="10" t="s">
+      <c r="N165" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N165" s="10" t="s">
+      <c r="O165" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="O165" s="10" t="s">
+      <c r="P165" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R165" s="10"/>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="26" t="s">
         <v>457</v>
       </c>
@@ -11001,34 +11171,35 @@
         <v>350</v>
       </c>
       <c r="G166" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H166" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H166" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I166" s="17">
         <v>2</v>
       </c>
-      <c r="J166" s="26"/>
-      <c r="K166" s="17">
+      <c r="J166" s="17"/>
+      <c r="K166" s="26"/>
+      <c r="L166" s="17">
         <v>2</v>
       </c>
-      <c r="L166" s="10" t="s">
+      <c r="M166" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M166" s="10" t="s">
+      <c r="N166" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N166" s="10" t="s">
+      <c r="O166" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O166" s="10" t="s">
+      <c r="P166" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P166" s="10"/>
       <c r="Q166" s="10"/>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R166" s="10"/>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="26" t="s">
         <v>458</v>
       </c>
@@ -11048,34 +11219,35 @@
         <v>350</v>
       </c>
       <c r="G167" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H167" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H167" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I167" s="17">
         <v>2</v>
       </c>
-      <c r="J167" s="26"/>
-      <c r="K167" s="17">
+      <c r="J167" s="17"/>
+      <c r="K167" s="26"/>
+      <c r="L167" s="17">
         <v>1</v>
       </c>
-      <c r="L167" s="10" t="s">
+      <c r="M167" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M167" s="10" t="s">
+      <c r="N167" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N167" s="10" t="s">
+      <c r="O167" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O167" s="10" t="s">
+      <c r="P167" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P167" s="17"/>
       <c r="Q167" s="17"/>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R167" s="17"/>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="26" t="s">
         <v>431</v>
       </c>
@@ -11093,34 +11265,35 @@
         <v>350</v>
       </c>
       <c r="G168" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H168" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H168" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I168" s="17">
         <v>2</v>
       </c>
-      <c r="J168" s="26"/>
-      <c r="K168" s="17">
+      <c r="J168" s="17"/>
+      <c r="K168" s="26"/>
+      <c r="L168" s="17">
         <v>2</v>
       </c>
-      <c r="L168" s="10" t="s">
+      <c r="M168" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M168" s="10" t="s">
+      <c r="N168" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N168" s="10" t="s">
+      <c r="O168" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O168" s="10" t="s">
+      <c r="P168" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P168" s="10"/>
       <c r="Q168" s="10"/>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R168" s="10"/>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="26" t="s">
         <v>462</v>
       </c>
@@ -11140,34 +11313,35 @@
         <v>350</v>
       </c>
       <c r="G169" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H169" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H169" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I169" s="17">
         <v>2</v>
       </c>
-      <c r="J169" s="26"/>
-      <c r="K169" s="17">
+      <c r="J169" s="17"/>
+      <c r="K169" s="26"/>
+      <c r="L169" s="17">
         <v>1</v>
       </c>
-      <c r="L169" s="10" t="s">
+      <c r="M169" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M169" s="10" t="s">
+      <c r="N169" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N169" s="10" t="s">
+      <c r="O169" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O169" s="10" t="s">
+      <c r="P169" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P169" s="10"/>
       <c r="Q169" s="10"/>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R169" s="10"/>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="26" t="s">
         <v>234</v>
       </c>
@@ -11185,36 +11359,37 @@
         <v>350</v>
       </c>
       <c r="G170" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H170" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H170" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I170" s="17">
         <v>2</v>
       </c>
-      <c r="J170" s="10"/>
-      <c r="K170" s="17">
+      <c r="J170" s="17"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="17">
         <v>2</v>
       </c>
-      <c r="L170" s="10" t="s">
+      <c r="M170" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M170" s="10" t="s">
+      <c r="N170" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N170" s="10" t="s">
+      <c r="O170" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O170" s="10" t="s">
+      <c r="P170" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P170" s="10" t="s">
+      <c r="Q170" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Q170" s="10"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R170" s="10"/>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="26" t="s">
         <v>459</v>
       </c>
@@ -11234,34 +11409,35 @@
         <v>350</v>
       </c>
       <c r="G171" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H171" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H171" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I171" s="17">
         <v>2</v>
       </c>
-      <c r="J171" s="26"/>
-      <c r="K171" s="17">
+      <c r="J171" s="17"/>
+      <c r="K171" s="26"/>
+      <c r="L171" s="17">
         <v>1</v>
       </c>
-      <c r="L171" s="10" t="s">
+      <c r="M171" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M171" s="10" t="s">
+      <c r="N171" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N171" s="10" t="s">
+      <c r="O171" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O171" s="10" t="s">
+      <c r="P171" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P171" s="10"/>
       <c r="Q171" s="10"/>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R171" s="10"/>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="26" t="s">
         <v>497</v>
       </c>
@@ -11281,34 +11457,35 @@
         <v>350</v>
       </c>
       <c r="G172" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H172" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H172" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I172" s="17">
         <v>2</v>
       </c>
-      <c r="J172" s="26"/>
-      <c r="K172" s="17">
+      <c r="J172" s="17"/>
+      <c r="K172" s="26"/>
+      <c r="L172" s="17">
         <v>1</v>
       </c>
-      <c r="L172" s="10" t="s">
+      <c r="M172" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M172" s="10" t="s">
+      <c r="N172" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N172" s="10" t="s">
+      <c r="O172" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O172" s="10" t="s">
+      <c r="P172" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P172" s="10"/>
       <c r="Q172" s="10"/>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R172" s="10"/>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="26" t="s">
         <v>498</v>
       </c>
@@ -11328,34 +11505,35 @@
         <v>350</v>
       </c>
       <c r="G173" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H173" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H173" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I173" s="17">
         <v>2</v>
       </c>
-      <c r="J173" s="26"/>
-      <c r="K173" s="17">
+      <c r="J173" s="17"/>
+      <c r="K173" s="26"/>
+      <c r="L173" s="17">
         <v>2</v>
       </c>
-      <c r="L173" s="10" t="s">
+      <c r="M173" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M173" s="10" t="s">
+      <c r="N173" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N173" s="10" t="s">
+      <c r="O173" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O173" s="10" t="s">
+      <c r="P173" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P173" s="10"/>
       <c r="Q173" s="10"/>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R173" s="10"/>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="26" t="s">
         <v>499</v>
       </c>
@@ -11375,34 +11553,35 @@
         <v>350</v>
       </c>
       <c r="G174" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H174" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H174" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I174" s="17">
         <v>2</v>
       </c>
-      <c r="J174" s="26"/>
-      <c r="K174" s="17">
+      <c r="J174" s="17"/>
+      <c r="K174" s="26"/>
+      <c r="L174" s="17">
         <v>3</v>
       </c>
-      <c r="L174" s="10" t="s">
+      <c r="M174" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M174" s="10" t="s">
+      <c r="N174" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N174" s="10" t="s">
+      <c r="O174" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O174" s="10" t="s">
+      <c r="P174" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P174" s="10"/>
       <c r="Q174" s="10"/>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R174" s="10"/>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="26" t="s">
         <v>230</v>
       </c>
@@ -11420,36 +11599,37 @@
         <v>350</v>
       </c>
       <c r="G175" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H175" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H175" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I175" s="17">
         <v>2</v>
       </c>
-      <c r="J175" s="10"/>
-      <c r="K175" s="17">
+      <c r="J175" s="17"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="17">
         <v>2</v>
       </c>
-      <c r="L175" s="10" t="s">
+      <c r="M175" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M175" s="10" t="s">
+      <c r="N175" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N175" s="10" t="s">
+      <c r="O175" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O175" s="10" t="s">
+      <c r="P175" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="P175" s="10" t="s">
+      <c r="Q175" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q175" s="10"/>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R175" s="10"/>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="26" t="s">
         <v>229</v>
       </c>
@@ -11467,36 +11647,37 @@
         <v>350</v>
       </c>
       <c r="G176" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H176" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H176" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I176" s="17">
         <v>2</v>
       </c>
-      <c r="J176" s="10"/>
-      <c r="K176" s="17">
+      <c r="J176" s="17"/>
+      <c r="K176" s="10"/>
+      <c r="L176" s="17">
         <v>2</v>
       </c>
-      <c r="L176" s="10" t="s">
+      <c r="M176" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M176" s="10" t="s">
+      <c r="N176" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N176" s="10" t="s">
+      <c r="O176" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="O176" s="10" t="s">
+      <c r="P176" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="P176" s="10" t="s">
+      <c r="Q176" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Q176" s="10"/>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R176" s="10"/>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" s="26" t="s">
         <v>380</v>
       </c>
@@ -11514,34 +11695,35 @@
         <v>350</v>
       </c>
       <c r="G177" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H177" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H177" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I177" s="17">
         <v>2</v>
       </c>
-      <c r="J177" s="26"/>
-      <c r="K177" s="17">
+      <c r="J177" s="17"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="17">
         <v>2</v>
       </c>
-      <c r="L177" s="10" t="s">
+      <c r="M177" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M177" s="10" t="s">
+      <c r="N177" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N177" s="10" t="s">
+      <c r="O177" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="O177" s="10" t="s">
+      <c r="P177" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="P177" s="10"/>
       <c r="Q177" s="10"/>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R177" s="10"/>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" s="26" t="s">
         <v>381</v>
       </c>
@@ -11559,34 +11741,35 @@
         <v>350</v>
       </c>
       <c r="G178" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H178" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H178" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I178" s="17">
         <v>2</v>
       </c>
-      <c r="J178" s="26"/>
-      <c r="K178" s="17">
+      <c r="J178" s="17"/>
+      <c r="K178" s="26"/>
+      <c r="L178" s="17">
         <v>2</v>
       </c>
-      <c r="L178" s="10" t="s">
+      <c r="M178" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M178" s="10" t="s">
+      <c r="N178" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N178" s="10" t="s">
+      <c r="O178" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="O178" s="10" t="s">
+      <c r="P178" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="P178" s="10"/>
       <c r="Q178" s="10"/>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R178" s="10"/>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="26" t="s">
         <v>448</v>
       </c>
@@ -11604,34 +11787,35 @@
         <v>350</v>
       </c>
       <c r="G179" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H179" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H179" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I179" s="17">
         <v>2</v>
       </c>
-      <c r="J179" s="26"/>
-      <c r="K179" s="17">
+      <c r="J179" s="17"/>
+      <c r="K179" s="26"/>
+      <c r="L179" s="17">
         <v>2</v>
       </c>
-      <c r="L179" s="10" t="s">
+      <c r="M179" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M179" s="10" t="s">
+      <c r="N179" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="N179" s="10" t="s">
+      <c r="O179" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="O179" s="10" t="s">
+      <c r="P179" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="P179" s="10"/>
       <c r="Q179" s="10"/>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R179" s="10"/>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" s="26" t="s">
         <v>224</v>
       </c>
@@ -11649,36 +11833,37 @@
         <v>350</v>
       </c>
       <c r="G180" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H180" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H180" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I180" s="17">
         <v>2</v>
       </c>
-      <c r="J180" s="10"/>
-      <c r="K180" s="17">
+      <c r="J180" s="17"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="17">
         <v>2</v>
       </c>
-      <c r="L180" s="10" t="s">
+      <c r="M180" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M180" s="10" t="s">
+      <c r="N180" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N180" s="10" t="s">
+      <c r="O180" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O180" s="10" t="s">
+      <c r="P180" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P180" s="10" t="s">
+      <c r="Q180" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Q180" s="10"/>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R180" s="10"/>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" s="26" t="s">
         <v>485</v>
       </c>
@@ -11698,34 +11883,35 @@
         <v>350</v>
       </c>
       <c r="G181" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H181" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H181" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I181" s="17">
         <v>2</v>
       </c>
-      <c r="J181" s="26"/>
-      <c r="K181" s="17">
+      <c r="J181" s="17"/>
+      <c r="K181" s="26"/>
+      <c r="L181" s="17">
         <v>2</v>
       </c>
-      <c r="L181" s="10" t="s">
+      <c r="M181" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M181" s="10" t="s">
+      <c r="N181" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N181" s="10" t="s">
+      <c r="O181" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O181" s="10" t="s">
+      <c r="P181" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="P181" s="17"/>
       <c r="Q181" s="17"/>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R181" s="17"/>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" s="26" t="s">
         <v>500</v>
       </c>
@@ -11745,34 +11931,35 @@
         <v>350</v>
       </c>
       <c r="G182" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H182" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H182" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I182" s="17">
         <v>2</v>
       </c>
-      <c r="J182" s="26"/>
-      <c r="K182" s="17">
+      <c r="J182" s="17"/>
+      <c r="K182" s="26"/>
+      <c r="L182" s="17">
         <v>1</v>
       </c>
-      <c r="L182" s="10" t="s">
+      <c r="M182" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M182" s="10" t="s">
+      <c r="N182" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N182" s="10" t="s">
+      <c r="O182" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O182" s="10" t="s">
+      <c r="P182" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="P182" s="17"/>
       <c r="Q182" s="17"/>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R182" s="17"/>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" s="26" t="s">
         <v>228</v>
       </c>
@@ -11790,36 +11977,37 @@
         <v>350</v>
       </c>
       <c r="G183" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H183" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H183" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I183" s="17">
         <v>2</v>
       </c>
-      <c r="J183" s="10"/>
-      <c r="K183" s="17">
+      <c r="J183" s="17"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="17">
         <v>2</v>
       </c>
-      <c r="L183" s="10" t="s">
+      <c r="M183" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M183" s="10" t="s">
+      <c r="N183" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N183" s="10" t="s">
+      <c r="O183" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="O183" s="10" t="s">
+      <c r="P183" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="P183" s="10" t="s">
+      <c r="Q183" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q183" s="10"/>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R183" s="10"/>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" s="26" t="s">
         <v>505</v>
       </c>
@@ -11839,34 +12027,35 @@
         <v>350</v>
       </c>
       <c r="G184" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H184" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H184" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I184" s="17">
         <v>2</v>
       </c>
-      <c r="J184" s="26"/>
-      <c r="K184" s="17">
+      <c r="J184" s="17"/>
+      <c r="K184" s="26"/>
+      <c r="L184" s="17">
         <v>1</v>
       </c>
-      <c r="L184" s="10" t="s">
+      <c r="M184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M184" s="10" t="s">
+      <c r="N184" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N184" s="10" t="s">
+      <c r="O184" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="O184" s="10" t="s">
+      <c r="P184" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="P184" s="10"/>
       <c r="Q184" s="10"/>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R184" s="10"/>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" s="26" t="s">
         <v>506</v>
       </c>
@@ -11886,34 +12075,35 @@
         <v>350</v>
       </c>
       <c r="G185" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H185" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H185" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I185" s="17">
         <v>2</v>
       </c>
-      <c r="J185" s="26"/>
-      <c r="K185" s="17">
+      <c r="J185" s="17"/>
+      <c r="K185" s="26"/>
+      <c r="L185" s="17">
         <v>2</v>
       </c>
-      <c r="L185" s="10" t="s">
+      <c r="M185" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M185" s="10" t="s">
+      <c r="N185" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N185" s="10" t="s">
+      <c r="O185" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="O185" s="10" t="s">
+      <c r="P185" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="P185" s="10"/>
       <c r="Q185" s="10"/>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R185" s="10"/>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="26" t="s">
         <v>507</v>
       </c>
@@ -11933,34 +12123,35 @@
         <v>350</v>
       </c>
       <c r="G186" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H186" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H186" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I186" s="17">
         <v>2</v>
       </c>
-      <c r="J186" s="26"/>
-      <c r="K186" s="17">
+      <c r="J186" s="17"/>
+      <c r="K186" s="26"/>
+      <c r="L186" s="17">
         <v>3</v>
       </c>
-      <c r="L186" s="10" t="s">
+      <c r="M186" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M186" s="10" t="s">
+      <c r="N186" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N186" s="10" t="s">
+      <c r="O186" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="O186" s="10" t="s">
+      <c r="P186" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="P186" s="10"/>
       <c r="Q186" s="10"/>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R186" s="10"/>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="26" t="s">
         <v>508</v>
       </c>
@@ -11980,34 +12171,35 @@
         <v>350</v>
       </c>
       <c r="G187" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H187" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H187" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I187" s="17">
         <v>2</v>
       </c>
-      <c r="J187" s="26"/>
-      <c r="K187" s="17">
+      <c r="J187" s="17"/>
+      <c r="K187" s="26"/>
+      <c r="L187" s="17">
         <v>4</v>
       </c>
-      <c r="L187" s="10" t="s">
+      <c r="M187" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M187" s="10" t="s">
+      <c r="N187" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N187" s="10" t="s">
+      <c r="O187" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="O187" s="10" t="s">
+      <c r="P187" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="P187" s="10"/>
       <c r="Q187" s="10"/>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R187" s="10"/>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" s="26" t="s">
         <v>438</v>
       </c>
@@ -12025,34 +12217,35 @@
         <v>350</v>
       </c>
       <c r="G188" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H188" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H188" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I188" s="17">
         <v>2</v>
       </c>
-      <c r="J188" s="26"/>
-      <c r="K188" s="17">
+      <c r="J188" s="17"/>
+      <c r="K188" s="26"/>
+      <c r="L188" s="17">
         <v>2</v>
       </c>
-      <c r="L188" s="10" t="s">
+      <c r="M188" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M188" s="10" t="s">
+      <c r="N188" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N188" s="10" t="s">
+      <c r="O188" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="O188" s="10" t="s">
+      <c r="P188" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="P188" s="10"/>
       <c r="Q188" s="10"/>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R188" s="10"/>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" s="26" t="s">
         <v>440</v>
       </c>
@@ -12070,34 +12263,35 @@
         <v>350</v>
       </c>
       <c r="G189" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H189" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H189" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I189" s="17">
         <v>2</v>
       </c>
-      <c r="J189" s="26"/>
-      <c r="K189" s="17">
+      <c r="J189" s="17"/>
+      <c r="K189" s="26"/>
+      <c r="L189" s="17">
         <v>2</v>
       </c>
-      <c r="L189" s="10" t="s">
+      <c r="M189" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M189" s="10" t="s">
+      <c r="N189" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N189" s="10" t="s">
+      <c r="O189" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="O189" s="10" t="s">
+      <c r="P189" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="P189" s="10"/>
       <c r="Q189" s="10"/>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R189" s="10"/>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" s="26" t="s">
         <v>479</v>
       </c>
@@ -12117,34 +12311,35 @@
         <v>350</v>
       </c>
       <c r="G190" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H190" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H190" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I190" s="17">
         <v>2</v>
       </c>
-      <c r="J190" s="26"/>
-      <c r="K190" s="17">
+      <c r="J190" s="17"/>
+      <c r="K190" s="26"/>
+      <c r="L190" s="17">
         <v>1</v>
       </c>
-      <c r="L190" s="10" t="s">
+      <c r="M190" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M190" s="10" t="s">
+      <c r="N190" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N190" s="10" t="s">
+      <c r="O190" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="O190" s="10" t="s">
+      <c r="P190" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="P190" s="10"/>
       <c r="Q190" s="10"/>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R190" s="10"/>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" s="26" t="s">
         <v>474</v>
       </c>
@@ -12164,34 +12359,35 @@
         <v>350</v>
       </c>
       <c r="G191" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H191" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H191" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I191" s="17">
         <v>2</v>
       </c>
-      <c r="J191" s="26"/>
-      <c r="K191" s="17">
+      <c r="J191" s="17"/>
+      <c r="K191" s="26"/>
+      <c r="L191" s="17">
         <v>1</v>
       </c>
-      <c r="L191" s="10" t="s">
+      <c r="M191" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M191" s="10" t="s">
+      <c r="N191" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N191" s="10" t="s">
+      <c r="O191" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="O191" s="10" t="s">
+      <c r="P191" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="P191" s="10"/>
       <c r="Q191" s="10"/>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R191" s="10"/>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" s="26" t="s">
         <v>233</v>
       </c>
@@ -12209,36 +12405,37 @@
         <v>350</v>
       </c>
       <c r="G192" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H192" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H192" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I192" s="17">
         <v>2</v>
       </c>
-      <c r="J192" s="10"/>
-      <c r="K192" s="17">
+      <c r="J192" s="17"/>
+      <c r="K192" s="10"/>
+      <c r="L192" s="17">
         <v>2</v>
       </c>
-      <c r="L192" s="10" t="s">
+      <c r="M192" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M192" s="10" t="s">
+      <c r="N192" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N192" s="10" t="s">
+      <c r="O192" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="O192" s="10" t="s">
+      <c r="P192" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="P192" s="10" t="s">
+      <c r="Q192" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q192" s="10"/>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R192" s="10"/>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" s="26" t="s">
         <v>480</v>
       </c>
@@ -12258,34 +12455,35 @@
         <v>350</v>
       </c>
       <c r="G193" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H193" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H193" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I193" s="17">
         <v>2</v>
       </c>
-      <c r="J193" s="26"/>
-      <c r="K193" s="17">
+      <c r="J193" s="17"/>
+      <c r="K193" s="26"/>
+      <c r="L193" s="17">
         <v>1</v>
       </c>
-      <c r="L193" s="10" t="s">
+      <c r="M193" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M193" s="10" t="s">
+      <c r="N193" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N193" s="10" t="s">
+      <c r="O193" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="O193" s="10" t="s">
+      <c r="P193" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="P193" s="10"/>
       <c r="Q193" s="10"/>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R193" s="10"/>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" s="26" t="s">
         <v>481</v>
       </c>
@@ -12305,34 +12503,35 @@
         <v>350</v>
       </c>
       <c r="G194" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H194" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H194" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I194" s="17">
         <v>2</v>
       </c>
-      <c r="J194" s="26"/>
-      <c r="K194" s="17">
+      <c r="J194" s="17"/>
+      <c r="K194" s="26"/>
+      <c r="L194" s="17">
         <v>2</v>
       </c>
-      <c r="L194" s="10" t="s">
+      <c r="M194" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M194" s="10" t="s">
+      <c r="N194" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N194" s="10" t="s">
+      <c r="O194" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="O194" s="10" t="s">
+      <c r="P194" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="P194" s="10"/>
       <c r="Q194" s="10"/>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R194" s="10"/>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" s="26" t="s">
         <v>476</v>
       </c>
@@ -12352,34 +12551,35 @@
         <v>350</v>
       </c>
       <c r="G195" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H195" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H195" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I195" s="17">
         <v>2</v>
       </c>
-      <c r="J195" s="26"/>
-      <c r="K195" s="17">
+      <c r="J195" s="17"/>
+      <c r="K195" s="26"/>
+      <c r="L195" s="17">
         <v>2</v>
       </c>
-      <c r="L195" s="10" t="s">
+      <c r="M195" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="M195" s="10" t="s">
+      <c r="N195" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="N195" s="10" t="s">
+      <c r="O195" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="O195" s="10" t="s">
+      <c r="P195" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="P195" s="10"/>
       <c r="Q195" s="10"/>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R195" s="10"/>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" s="26" t="s">
         <v>379</v>
       </c>
@@ -12397,34 +12597,35 @@
         <v>350</v>
       </c>
       <c r="G196" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H196" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H196" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I196" s="17">
         <v>2</v>
       </c>
-      <c r="J196" s="26"/>
-      <c r="K196" s="17">
+      <c r="J196" s="17"/>
+      <c r="K196" s="26"/>
+      <c r="L196" s="17">
         <v>2</v>
       </c>
-      <c r="L196" s="10" t="s">
+      <c r="M196" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M196" s="10" t="s">
+      <c r="N196" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="N196" s="10" t="s">
+      <c r="O196" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="O196" s="10" t="s">
+      <c r="P196" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="P196" s="10"/>
       <c r="Q196" s="10"/>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R196" s="10"/>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" s="26" t="s">
         <v>451</v>
       </c>
@@ -12442,34 +12643,35 @@
         <v>350</v>
       </c>
       <c r="G197" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H197" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H197" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I197" s="17">
         <v>2</v>
       </c>
-      <c r="J197" s="26"/>
-      <c r="K197" s="17">
+      <c r="J197" s="17"/>
+      <c r="K197" s="26"/>
+      <c r="L197" s="17">
         <v>2</v>
       </c>
-      <c r="L197" s="10" t="s">
+      <c r="M197" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M197" s="10" t="s">
+      <c r="N197" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="N197" s="10" t="s">
+      <c r="O197" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="O197" s="10" t="s">
+      <c r="P197" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="P197" s="10"/>
       <c r="Q197" s="10"/>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R197" s="10"/>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" s="26" t="s">
         <v>238</v>
       </c>
@@ -12487,36 +12689,37 @@
         <v>350</v>
       </c>
       <c r="G198" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H198" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H198" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I198" s="17">
         <v>2</v>
       </c>
-      <c r="J198" s="10"/>
-      <c r="K198" s="17">
+      <c r="J198" s="17"/>
+      <c r="K198" s="10"/>
+      <c r="L198" s="17">
         <v>2</v>
       </c>
-      <c r="L198" s="10" t="s">
+      <c r="M198" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M198" s="10" t="s">
+      <c r="N198" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N198" s="10" t="s">
+      <c r="O198" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="O198" s="10" t="s">
+      <c r="P198" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="P198" s="10" t="s">
+      <c r="Q198" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q198" s="10"/>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R198" s="10"/>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" s="26" t="s">
         <v>231</v>
       </c>
@@ -12534,36 +12737,37 @@
         <v>350</v>
       </c>
       <c r="G199" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H199" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="H199" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I199" s="17">
         <v>2</v>
       </c>
-      <c r="J199" s="10"/>
-      <c r="K199" s="17">
+      <c r="J199" s="17"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="17">
         <v>2</v>
       </c>
-      <c r="L199" s="10" t="s">
+      <c r="M199" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M199" s="10" t="s">
+      <c r="N199" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N199" s="10" t="s">
+      <c r="O199" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O199" s="10" t="s">
+      <c r="P199" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P199" s="10" t="s">
+      <c r="Q199" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Q199" s="10"/>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R199" s="10"/>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" s="24" t="s">
         <v>420</v>
       </c>
@@ -12581,34 +12785,35 @@
         <v>350</v>
       </c>
       <c r="G200" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H200" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H200" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I200" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="J200" s="4"/>
-      <c r="K200" s="15"/>
-      <c r="L200" s="4" t="s">
+      <c r="J200" s="16"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="15"/>
+      <c r="M200" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M200" s="4" t="s">
+      <c r="N200" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N200" s="4" t="s">
+      <c r="O200" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="O200" s="4" t="s">
+      <c r="P200" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="P200" s="4" t="s">
+      <c r="Q200" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="Q200" s="4"/>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R200" s="4"/>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" s="24" t="s">
         <v>206</v>
       </c>
@@ -12628,36 +12833,37 @@
         <v>350</v>
       </c>
       <c r="G201" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H201" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H201" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I201" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="J201" s="4"/>
-      <c r="K201" s="15"/>
-      <c r="L201" s="4" t="s">
+      <c r="J201" s="16"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="15"/>
+      <c r="M201" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M201" s="4" t="s">
+      <c r="N201" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N201" s="4" t="s">
+      <c r="O201" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O201" s="4" t="s">
+      <c r="P201" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P201" s="4" t="s">
+      <c r="Q201" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q201" s="4" t="s">
+      <c r="R201" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" s="24" t="s">
         <v>169</v>
       </c>
@@ -12675,36 +12881,37 @@
         <v>350</v>
       </c>
       <c r="G202" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H202" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="H202" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I202" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="J202" s="4"/>
-      <c r="K202" s="15"/>
-      <c r="L202" s="4" t="s">
+      <c r="J202" s="16"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="15"/>
+      <c r="M202" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M202" s="4" t="s">
+      <c r="N202" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N202" s="4" t="s">
+      <c r="O202" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="O202" s="4" t="s">
+      <c r="P202" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="P202" s="4" t="s">
+      <c r="Q202" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q202" s="4" t="s">
+      <c r="R202" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" s="22" t="s">
         <v>285</v>
       </c>
@@ -12724,30 +12931,31 @@
         <v>350</v>
       </c>
       <c r="G203" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H203" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="H203" s="7" t="s">
+      <c r="I203" s="13"/>
+      <c r="J203" s="13"/>
+      <c r="K203" s="7"/>
+      <c r="L203" s="13"/>
+      <c r="M203" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N203" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="I203" s="13"/>
-      <c r="J203" s="7"/>
-      <c r="K203" s="13"/>
-      <c r="L203" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M203" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="N203" s="7" t="s">
+      <c r="O203" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="O203" s="7" t="s">
+      <c r="P203" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="P203" s="41"/>
       <c r="Q203" s="41"/>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R203" s="41"/>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" s="22" t="s">
         <v>286</v>
       </c>
@@ -12765,31 +12973,32 @@
         <v>350</v>
       </c>
       <c r="G204" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H204" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="H204" s="7" t="s">
+      <c r="I204" s="13"/>
+      <c r="J204" s="13"/>
+      <c r="K204" s="7"/>
+      <c r="L204" s="13"/>
+      <c r="M204" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N204" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="I204" s="13"/>
-      <c r="J204" s="7"/>
-      <c r="K204" s="13"/>
-      <c r="L204" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M204" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="N204" s="7" t="s">
+      <c r="O204" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="O204" s="7" t="s">
+      <c r="P204" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="P204" s="41"/>
       <c r="Q204" s="41"/>
+      <c r="R204" s="41"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q204">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R204">
     <sortCondition ref="B2:B204"/>
     <sortCondition ref="C2:C204"/>
   </sortState>

--- a/tabular/ncbi-refseqs/ifnl-side-data.xlsx
+++ b/tabular/ncbi-refseqs/ifnl-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/ncbi-refseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C8CD49-5F03-E84D-AC77-168C0F5B49D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8154E61-1C6E-FD47-8B8B-866B8318443F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="6060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="592">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1372,9 +1372,6 @@
   </si>
   <si>
     <t>NM_001290171</t>
-  </si>
-  <si>
-    <t>NW_016529666</t>
   </si>
   <si>
     <t>XM_004396491</t>
@@ -1920,7 +1917,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1989,12 +1986,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2546,7 +2537,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2606,16 +2597,12 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2627,7 +2614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2645,7 +2632,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3529,10 +3516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R204"/>
+  <dimension ref="A1:R200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3551,8 +3538,8 @@
     <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
     <col min="16" max="16" width="21.33203125" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" style="39" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="39"/>
+    <col min="17" max="17" width="15.83203125" style="37" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -3566,7 +3553,7 @@
         <v>358</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>357</v>
@@ -3584,7 +3571,7 @@
         <v>362</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>351</v>
@@ -3593,21 +3580,21 @@
         <v>352</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="35" t="s">
         <v>360</v>
       </c>
     </row>
@@ -3650,10 +3637,10 @@
       <c r="P2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="36" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3696,8 +3683,8 @@
       <c r="P3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
@@ -3738,8 +3725,8 @@
       <c r="P4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
@@ -3780,8 +3767,8 @@
       <c r="P5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
@@ -3822,12 +3809,12 @@
       <c r="P6" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>373</v>
@@ -3906,10 +3893,10 @@
       <c r="P8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="38"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
@@ -3950,10 +3937,10 @@
       <c r="P9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="38"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -3994,10 +3981,10 @@
       <c r="P10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q10" s="38" t="s">
+      <c r="Q10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="R10" s="38"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
@@ -4038,8 +4025,8 @@
       <c r="P11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
@@ -4080,21 +4067,21 @@
       <c r="P12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>441</v>
@@ -4124,8 +4111,8 @@
       <c r="P13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
@@ -4166,21 +4153,21 @@
       <c r="P14" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>441</v>
@@ -4208,14 +4195,14 @@
         <v>100</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
+        <v>536</v>
+      </c>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>373</v>
@@ -4249,17 +4236,17 @@
         <v>92</v>
       </c>
       <c r="O16" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>373</v>
@@ -4298,21 +4285,21 @@
       <c r="P17" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
@@ -4335,26 +4322,26 @@
         <v>92</v>
       </c>
       <c r="O18" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="P18" s="10" t="s">
         <v>540</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>541</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>441</v>
@@ -4379,26 +4366,26 @@
         <v>131</v>
       </c>
       <c r="O19" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>441</v>
@@ -4426,10 +4413,10 @@
         <v>78</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
+        <v>543</v>
+      </c>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
@@ -4470,14 +4457,14 @@
       <c r="P21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q21" s="38" t="s">
+      <c r="Q21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="38"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>373</v>
@@ -4516,8 +4503,8 @@
       <c r="P22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
@@ -4558,12 +4545,12 @@
       <c r="P23" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>373</v>
@@ -4602,8 +4589,8 @@
       <c r="P24" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
@@ -4644,10 +4631,10 @@
       <c r="P25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q25" s="38" t="s">
+      <c r="Q25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="R25" s="38"/>
+      <c r="R25" s="36"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
@@ -4688,8 +4675,8 @@
       <c r="P26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
@@ -4730,8 +4717,8 @@
       <c r="P27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
@@ -4772,12 +4759,12 @@
       <c r="P28" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>373</v>
@@ -4816,8 +4803,8 @@
       <c r="P29" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
@@ -4860,10 +4847,10 @@
       <c r="P30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q30" s="38" t="s">
+      <c r="Q30" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="R30" s="38" t="s">
+      <c r="R30" s="36" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4906,8 +4893,8 @@
       <c r="P31" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
@@ -4948,10 +4935,10 @@
       <c r="P32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q32" s="38" t="s">
+      <c r="Q32" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R32" s="38" t="s">
+      <c r="R32" s="36" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4994,12 +4981,12 @@
       <c r="P33" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>373</v>
@@ -5038,8 +5025,8 @@
       <c r="P34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
@@ -5080,10 +5067,10 @@
       <c r="P35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q35" s="38" t="s">
+      <c r="Q35" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="R35" s="38"/>
+      <c r="R35" s="36"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
@@ -5124,12 +5111,12 @@
       <c r="P36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>373</v>
@@ -5166,14 +5153,14 @@
         <v>78</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
+        <v>544</v>
+      </c>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>373</v>
@@ -5212,8 +5199,8 @@
       <c r="P38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
@@ -5254,10 +5241,10 @@
       <c r="P39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q39" s="38" t="s">
+      <c r="Q39" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="R39" s="38"/>
+      <c r="R39" s="36"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
@@ -5298,12 +5285,12 @@
       <c r="P40" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>373</v>
@@ -5342,8 +5329,8 @@
       <c r="P41" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
@@ -5384,12 +5371,12 @@
       <c r="P42" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>373</v>
@@ -5426,8 +5413,8 @@
       <c r="P43" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
@@ -5468,10 +5455,10 @@
       <c r="P44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q44" s="38" t="s">
+      <c r="Q44" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="R44" s="38"/>
+      <c r="R44" s="36"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
@@ -5512,21 +5499,21 @@
       <c r="P45" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
@@ -5554,8 +5541,8 @@
       <c r="P46" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
     </row>
     <row r="47" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
@@ -5596,8 +5583,8 @@
       <c r="P47" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
     </row>
     <row r="48" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
@@ -5638,10 +5625,10 @@
       <c r="P48" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="Q48" s="38" t="s">
+      <c r="Q48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="R48" s="38"/>
+      <c r="R48" s="36"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
@@ -5682,25 +5669,25 @@
       <c r="P49" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q49" s="38" t="s">
+      <c r="Q49" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="R49" s="38" t="s">
+      <c r="R49" s="36" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>441</v>
@@ -5730,8 +5717,8 @@
       <c r="P50" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
@@ -5772,10 +5759,10 @@
       <c r="P51" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Q51" s="38" t="s">
+      <c r="Q51" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="R51" s="38"/>
+      <c r="R51" s="36"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
@@ -5816,8 +5803,8 @@
       <c r="P52" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
@@ -5858,8 +5845,8 @@
       <c r="P53" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
@@ -5869,10 +5856,10 @@
         <v>373</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>441</v>
@@ -5902,8 +5889,8 @@
       <c r="P54" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
@@ -5944,8 +5931,8 @@
       <c r="P55" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
@@ -5986,12 +5973,12 @@
       <c r="P56" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>373</v>
@@ -6030,21 +6017,21 @@
       <c r="P57" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>441</v>
@@ -6072,14 +6059,14 @@
         <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
+        <v>545</v>
+      </c>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>373</v>
@@ -6116,10 +6103,10 @@
         <v>94</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
+        <v>546</v>
+      </c>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
@@ -6160,10 +6147,10 @@
       <c r="P60" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q60" s="38" t="s">
+      <c r="Q60" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="R60" s="38"/>
+      <c r="R60" s="36"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
@@ -6204,8 +6191,8 @@
       <c r="P61" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
@@ -6246,10 +6233,10 @@
       <c r="P62" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q62" s="38" t="s">
+      <c r="Q62" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="R62" s="38"/>
+      <c r="R62" s="36"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
@@ -6290,8 +6277,8 @@
       <c r="P63" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
     </row>
     <row r="64" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
@@ -6332,23 +6319,23 @@
       <c r="P64" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Q64" s="38" t="s">
+      <c r="Q64" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="R64" s="38"/>
+      <c r="R64" s="36"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>441</v>
@@ -6376,10 +6363,10 @@
         <v>130</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
+        <v>547</v>
+      </c>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
@@ -6420,10 +6407,10 @@
       <c r="P66" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Q66" s="38" t="s">
+      <c r="Q66" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="R66" s="38" t="s">
+      <c r="R66" s="36" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6470,96 +6457,96 @@
       <c r="P67" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q67" s="38" t="s">
+      <c r="Q67" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="R67" s="38"/>
+      <c r="R67" s="36"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="F68" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="G68" s="35" t="s">
+      <c r="F68" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="G68" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="H68" s="36">
+      <c r="H68" s="34">
         <v>1</v>
       </c>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35" t="s">
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="N68" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="O68" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="N68" s="35" t="s">
+      <c r="P68" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="G69" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="O68" s="35" t="s">
-        <v>550</v>
-      </c>
-      <c r="P68" s="35" t="s">
+      <c r="H69" s="34">
+        <v>1</v>
+      </c>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="N69" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="O69" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="H69" s="36">
-        <v>1</v>
-      </c>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35" t="s">
-        <v>549</v>
-      </c>
-      <c r="N69" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="O69" s="35" t="s">
+      <c r="P69" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="P69" s="35" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
@@ -6579,29 +6566,29 @@
         <v>350</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="H70" s="33">
+        <v>553</v>
+      </c>
+      <c r="H70" s="31">
         <v>1</v>
       </c>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
       <c r="K70" s="30"/>
       <c r="L70" s="30"/>
       <c r="M70" s="30" t="s">
         <v>92</v>
       </c>
       <c r="N70" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="O70" s="30" t="s">
         <v>554</v>
-      </c>
-      <c r="O70" s="30" t="s">
-        <v>555</v>
       </c>
       <c r="P70" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="42"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
@@ -6623,7 +6610,7 @@
         <v>350</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H71" s="13">
         <v>2</v>
@@ -6636,16 +6623,16 @@
         <v>92</v>
       </c>
       <c r="N71" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="O71" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="O71" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
@@ -6677,19 +6664,19 @@
       <c r="K72" s="9"/>
       <c r="L72" s="12"/>
       <c r="M72" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N72" s="9" t="s">
         <v>335</v>
       </c>
       <c r="O72" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="P72" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="P72" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
@@ -6699,10 +6686,10 @@
         <v>367</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>332</v>
@@ -6721,19 +6708,19 @@
       <c r="K73" s="8"/>
       <c r="L73" s="14"/>
       <c r="M73" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="N73" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="N73" s="8" t="s">
+      <c r="O73" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="O73" s="8" t="s">
+      <c r="P73" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="P73" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
@@ -6763,19 +6750,19 @@
       <c r="K74" s="8"/>
       <c r="L74" s="14"/>
       <c r="M74" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N74" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="O74" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="O74" s="8" t="s">
+      <c r="P74" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="P74" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="44"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
@@ -6785,10 +6772,10 @@
         <v>367</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
@@ -6805,19 +6792,19 @@
       <c r="K75" s="8"/>
       <c r="L75" s="14"/>
       <c r="M75" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N75" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="O75" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="O75" s="8" t="s">
+      <c r="P75" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="P75" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="44"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
@@ -6846,8 +6833,8 @@
         <v>1</v>
       </c>
       <c r="J76" s="15"/>
-      <c r="K76" s="48" t="s">
-        <v>589</v>
+      <c r="K76" s="46" t="s">
+        <v>588</v>
       </c>
       <c r="L76" s="15"/>
       <c r="M76" s="4" t="s">
@@ -6896,8 +6883,8 @@
         <v>1</v>
       </c>
       <c r="J77" s="15"/>
-      <c r="K77" s="48" t="s">
-        <v>589</v>
+      <c r="K77" s="46" t="s">
+        <v>588</v>
       </c>
       <c r="L77" s="15"/>
       <c r="M77" s="4" t="s">
@@ -6944,8 +6931,8 @@
         <v>1</v>
       </c>
       <c r="J78" s="15"/>
-      <c r="K78" s="48" t="s">
-        <v>589</v>
+      <c r="K78" s="46" t="s">
+        <v>588</v>
       </c>
       <c r="L78" s="15"/>
       <c r="M78" s="4" t="s">
@@ -6992,8 +6979,8 @@
         <v>1</v>
       </c>
       <c r="J79" s="15"/>
-      <c r="K79" s="48" t="s">
-        <v>589</v>
+      <c r="K79" s="46" t="s">
+        <v>588</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4" t="s">
@@ -7003,26 +6990,26 @@
         <v>131</v>
       </c>
       <c r="O79" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="P79" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="P79" s="4" t="s">
-        <v>570</v>
       </c>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="44" t="s">
         <v>443</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>441</v>
@@ -7040,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="15"/>
-      <c r="K80" s="47" t="s">
+      <c r="K80" s="45" t="s">
         <v>342</v>
       </c>
       <c r="L80" s="16">
@@ -7053,10 +7040,10 @@
         <v>131</v>
       </c>
       <c r="O80" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="P80" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="P80" s="4" t="s">
-        <v>570</v>
       </c>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
@@ -7072,7 +7059,7 @@
         <v>309</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
@@ -7088,8 +7075,8 @@
         <v>1</v>
       </c>
       <c r="J81" s="15"/>
-      <c r="K81" s="48" t="s">
-        <v>589</v>
+      <c r="K81" s="46" t="s">
+        <v>588</v>
       </c>
       <c r="L81" s="15"/>
       <c r="M81" s="4" t="s">
@@ -7136,8 +7123,8 @@
         <v>1</v>
       </c>
       <c r="J82" s="15"/>
-      <c r="K82" s="48" t="s">
-        <v>589</v>
+      <c r="K82" s="46" t="s">
+        <v>588</v>
       </c>
       <c r="L82" s="15"/>
       <c r="M82" s="4" t="s">
@@ -7159,16 +7146,16 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
@@ -7184,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="15"/>
-      <c r="K83" s="47" t="s">
+      <c r="K83" s="45" t="s">
         <v>342</v>
       </c>
       <c r="L83" s="16">
@@ -7232,8 +7219,8 @@
         <v>1</v>
       </c>
       <c r="J84" s="15"/>
-      <c r="K84" s="48" t="s">
-        <v>589</v>
+      <c r="K84" s="46" t="s">
+        <v>588</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4" t="s">
@@ -7243,26 +7230,26 @@
         <v>92</v>
       </c>
       <c r="O84" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="P84" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="P84" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>441</v>
@@ -7280,8 +7267,8 @@
         <v>1</v>
       </c>
       <c r="J85" s="15"/>
-      <c r="K85" s="48" t="s">
-        <v>589</v>
+      <c r="K85" s="46" t="s">
+        <v>588</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4" t="s">
@@ -7294,7 +7281,7 @@
         <v>100</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
@@ -7326,8 +7313,8 @@
         <v>1</v>
       </c>
       <c r="J86" s="15"/>
-      <c r="K86" s="48" t="s">
-        <v>589</v>
+      <c r="K86" s="46" t="s">
+        <v>588</v>
       </c>
       <c r="L86" s="15"/>
       <c r="M86" s="4" t="s">
@@ -7376,8 +7363,8 @@
         <v>1</v>
       </c>
       <c r="J87" s="15"/>
-      <c r="K87" s="48" t="s">
-        <v>589</v>
+      <c r="K87" s="46" t="s">
+        <v>588</v>
       </c>
       <c r="L87" s="15"/>
       <c r="M87" s="4" t="s">
@@ -7427,7 +7414,7 @@
       </c>
       <c r="J88" s="15"/>
       <c r="K88" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4" t="s">
@@ -7447,16 +7434,16 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
@@ -7473,7 +7460,7 @@
       </c>
       <c r="J89" s="15"/>
       <c r="K89" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4" t="s">
@@ -7483,26 +7470,26 @@
         <v>92</v>
       </c>
       <c r="O89" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="P89" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="P89" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
@@ -7519,7 +7506,7 @@
       </c>
       <c r="J90" s="15"/>
       <c r="K90" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4" t="s">
@@ -7529,16 +7516,16 @@
         <v>92</v>
       </c>
       <c r="O90" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="P90" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="P90" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" s="46" t="s">
+      <c r="A91" s="44" t="s">
         <v>433</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -7564,7 +7551,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="15"/>
-      <c r="K91" s="47" t="s">
+      <c r="K91" s="45" t="s">
         <v>342</v>
       </c>
       <c r="L91" s="16">
@@ -7586,7 +7573,7 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="44" t="s">
         <v>247</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -7612,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="15"/>
-      <c r="K92" s="47" t="s">
+      <c r="K92" s="45" t="s">
         <v>342</v>
       </c>
       <c r="L92" s="16">
@@ -7663,7 +7650,7 @@
       </c>
       <c r="J93" s="15"/>
       <c r="K93" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L93" s="15"/>
       <c r="M93" s="4" t="s">
@@ -7711,7 +7698,7 @@
       </c>
       <c r="J94" s="15"/>
       <c r="K94" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L94" s="15"/>
       <c r="M94" s="4" t="s">
@@ -7761,7 +7748,7 @@
       </c>
       <c r="J95" s="15"/>
       <c r="K95" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4" t="s">
@@ -7807,7 +7794,7 @@
       </c>
       <c r="J96" s="15"/>
       <c r="K96" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4" t="s">
@@ -7857,7 +7844,7 @@
       </c>
       <c r="J97" s="15"/>
       <c r="K97" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L97" s="15"/>
       <c r="M97" s="4" t="s">
@@ -7907,7 +7894,7 @@
       </c>
       <c r="J98" s="15"/>
       <c r="K98" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L98" s="15"/>
       <c r="M98" s="4" t="s">
@@ -7955,7 +7942,7 @@
       </c>
       <c r="J99" s="15"/>
       <c r="K99" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L99" s="15"/>
       <c r="M99" s="4" t="s">
@@ -7977,7 +7964,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>368</v>
@@ -8005,7 +7992,7 @@
       </c>
       <c r="J100" s="15"/>
       <c r="K100" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4" t="s">
@@ -8018,23 +8005,23 @@
         <v>78</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>441</v>
@@ -8053,7 +8040,7 @@
       </c>
       <c r="J101" s="15"/>
       <c r="K101" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L101" s="4"/>
       <c r="M101" s="4" t="s">
@@ -8063,7 +8050,7 @@
         <v>82</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P101" s="4" t="s">
         <v>393</v>
@@ -8099,7 +8086,7 @@
       </c>
       <c r="J102" s="15"/>
       <c r="K102" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4" t="s">
@@ -8147,7 +8134,7 @@
       </c>
       <c r="J103" s="15"/>
       <c r="K103" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L103" s="15"/>
       <c r="M103" s="4" t="s">
@@ -8195,7 +8182,7 @@
       </c>
       <c r="J104" s="15"/>
       <c r="K104" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L104" s="15"/>
       <c r="M104" s="4" t="s">
@@ -8241,7 +8228,7 @@
       </c>
       <c r="J105" s="15"/>
       <c r="K105" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L105" s="15"/>
       <c r="M105" s="4" t="s">
@@ -8291,7 +8278,7 @@
       </c>
       <c r="J106" s="15"/>
       <c r="K106" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L106" s="15"/>
       <c r="M106" s="4" t="s">
@@ -8339,7 +8326,7 @@
       </c>
       <c r="J107" s="15"/>
       <c r="K107" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L107" s="15"/>
       <c r="M107" s="4" t="s">
@@ -8361,16 +8348,16 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>441</v>
@@ -8389,7 +8376,7 @@
       </c>
       <c r="J108" s="15"/>
       <c r="K108" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4" t="s">
@@ -8435,7 +8422,7 @@
       </c>
       <c r="J109" s="15"/>
       <c r="K109" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L109" s="15"/>
       <c r="M109" s="4" t="s">
@@ -8483,7 +8470,7 @@
       </c>
       <c r="J110" s="15"/>
       <c r="K110" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L110" s="15"/>
       <c r="M110" s="4" t="s">
@@ -8505,7 +8492,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>368</v>
@@ -8533,7 +8520,7 @@
       </c>
       <c r="J111" s="15"/>
       <c r="K111" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4" t="s">
@@ -8579,7 +8566,7 @@
       </c>
       <c r="J112" s="15"/>
       <c r="K112" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L112" s="15"/>
       <c r="M112" s="4" t="s">
@@ -8629,7 +8616,7 @@
       </c>
       <c r="J113" s="15"/>
       <c r="K113" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4" t="s">
@@ -8642,7 +8629,7 @@
         <v>94</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
@@ -8675,7 +8662,7 @@
       </c>
       <c r="J114" s="15"/>
       <c r="K114" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L114" s="15"/>
       <c r="M114" s="4" t="s">
@@ -8723,7 +8710,7 @@
       </c>
       <c r="J115" s="15"/>
       <c r="K115" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4" t="s">
@@ -8769,7 +8756,7 @@
       </c>
       <c r="J116" s="15"/>
       <c r="K116" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L116" s="15"/>
       <c r="M116" s="4" t="s">
@@ -8817,7 +8804,7 @@
       </c>
       <c r="J117" s="15"/>
       <c r="K117" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L117" s="15"/>
       <c r="M117" s="4" t="s">
@@ -8930,10 +8917,10 @@
       <c r="P119" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="Q119" s="45" t="s">
+      <c r="Q119" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="R119" s="45" t="s">
+      <c r="R119" s="43" t="s">
         <v>165</v>
       </c>
     </row>
@@ -8982,10 +8969,10 @@
       <c r="P120" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q120" s="45" t="s">
+      <c r="Q120" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="R120" s="45"/>
+      <c r="R120" s="43"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="25" t="s">
@@ -9032,10 +9019,10 @@
       <c r="P121" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Q121" s="45" t="s">
+      <c r="Q121" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="R121" s="45"/>
+      <c r="R121" s="43"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="25" t="s">
@@ -9082,10 +9069,10 @@
       <c r="P122" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="Q122" s="45" t="s">
+      <c r="Q122" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="R122" s="45"/>
+      <c r="R122" s="43"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="25" t="s">
@@ -9132,10 +9119,10 @@
       <c r="P123" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="Q123" s="45" t="s">
+      <c r="Q123" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="R123" s="45"/>
+      <c r="R123" s="43"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
@@ -9182,10 +9169,10 @@
       <c r="P124" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Q124" s="45" t="s">
+      <c r="Q124" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="R124" s="45"/>
+      <c r="R124" s="43"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="25" t="s">
@@ -9232,17 +9219,17 @@
       <c r="P125" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Q125" s="45" t="s">
+      <c r="Q125" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="R125" s="45"/>
+      <c r="R125" s="43"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="25" t="s">
         <v>209</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>312</v>
@@ -9282,10 +9269,10 @@
       <c r="P126" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="Q126" s="45" t="s">
+      <c r="Q126" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="R126" s="45" t="s">
+      <c r="R126" s="43" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9336,10 +9323,10 @@
       <c r="P127" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="Q127" s="45" t="s">
+      <c r="Q127" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="R127" s="45"/>
+      <c r="R127" s="43"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="26" t="s">
@@ -9583,16 +9570,16 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>441</v>
@@ -9679,7 +9666,7 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>371</v>
@@ -9720,7 +9707,7 @@
         <v>125</v>
       </c>
       <c r="P135" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q135" s="10"/>
       <c r="R135" s="10"/>
@@ -9766,7 +9753,7 @@
         <v>125</v>
       </c>
       <c r="P136" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q136" s="10"/>
       <c r="R136" s="10"/>
@@ -9782,7 +9769,7 @@
         <v>309</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10" t="s">
@@ -9917,7 +9904,7 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>371</v>
@@ -9965,7 +9952,7 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>371</v>
@@ -10013,7 +10000,7 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>371</v>
@@ -10061,16 +10048,16 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10" t="s">
@@ -10097,26 +10084,26 @@
         <v>92</v>
       </c>
       <c r="O143" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="P143" s="10" t="s">
         <v>540</v>
-      </c>
-      <c r="P143" s="10" t="s">
-        <v>541</v>
       </c>
       <c r="Q143" s="10"/>
       <c r="R143" s="10"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E144" s="10" t="s">
         <v>441</v>
@@ -10142,29 +10129,29 @@
         <v>104</v>
       </c>
       <c r="N144" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="O144" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="O144" s="10" t="s">
+      <c r="P144" s="10" t="s">
         <v>576</v>
-      </c>
-      <c r="P144" s="10" t="s">
-        <v>577</v>
       </c>
       <c r="Q144" s="10"/>
       <c r="R144" s="10"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E145" s="10" t="s">
         <v>441</v>
@@ -10196,7 +10183,7 @@
         <v>78</v>
       </c>
       <c r="P145" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q145" s="10"/>
       <c r="R145" s="10"/>
@@ -10439,7 +10426,7 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>371</v>
@@ -10487,7 +10474,7 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>371</v>
@@ -10547,7 +10534,7 @@
         <v>307</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F153" s="10" t="s">
         <v>350</v>
@@ -10597,7 +10584,7 @@
         <v>307</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>350</v>
@@ -10774,7 +10761,7 @@
         <v>78</v>
       </c>
       <c r="P157" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q157" s="10"/>
       <c r="R157" s="10"/>
@@ -10820,7 +10807,7 @@
         <v>78</v>
       </c>
       <c r="P158" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q158" s="10"/>
       <c r="R158" s="10"/>
@@ -10866,23 +10853,23 @@
         <v>78</v>
       </c>
       <c r="P159" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q159" s="10"/>
       <c r="R159" s="10"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E160" s="10" t="s">
         <v>441</v>
@@ -10908,13 +10895,13 @@
         <v>92</v>
       </c>
       <c r="N160" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="O160" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="O160" s="10" t="s">
+      <c r="P160" s="10" t="s">
         <v>579</v>
-      </c>
-      <c r="P160" s="10" t="s">
-        <v>580</v>
       </c>
       <c r="Q160" s="10"/>
       <c r="R160" s="10"/>
@@ -10957,7 +10944,7 @@
         <v>82</v>
       </c>
       <c r="O161" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P161" s="10" t="s">
         <v>393</v>
@@ -11003,7 +10990,7 @@
         <v>82</v>
       </c>
       <c r="O162" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P162" s="10" t="s">
         <v>393</v>
@@ -11049,7 +11036,7 @@
         <v>82</v>
       </c>
       <c r="O163" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P163" s="10" t="s">
         <v>393</v>
@@ -11059,7 +11046,7 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>371</v>
@@ -11097,7 +11084,7 @@
         <v>82</v>
       </c>
       <c r="O164" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P164" s="10" t="s">
         <v>393</v>
@@ -11107,7 +11094,7 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>371</v>
@@ -11145,7 +11132,7 @@
         <v>82</v>
       </c>
       <c r="O165" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P165" s="10" t="s">
         <v>393</v>
@@ -11155,7 +11142,7 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>371</v>
@@ -11201,7 +11188,7 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>371</v>
@@ -11295,7 +11282,7 @@
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>371</v>
@@ -11391,7 +11378,7 @@
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>371</v>
@@ -11439,7 +11426,7 @@
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>371</v>
@@ -11487,7 +11474,7 @@
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>371</v>
@@ -11535,7 +11522,7 @@
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>371</v>
@@ -11771,16 +11758,16 @@
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="10" t="s">
@@ -11865,16 +11852,16 @@
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E181" s="10" t="s">
         <v>441</v>
@@ -11913,16 +11900,16 @@
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E182" s="10" t="s">
         <v>441</v>
@@ -12009,7 +11996,7 @@
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" s="26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>371</v>
@@ -12057,7 +12044,7 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>371</v>
@@ -12105,7 +12092,7 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>371</v>
@@ -12153,7 +12140,7 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>371</v>
@@ -12240,7 +12227,7 @@
         <v>94</v>
       </c>
       <c r="P188" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q188" s="10"/>
       <c r="R188" s="10"/>
@@ -12286,14 +12273,14 @@
         <v>94</v>
       </c>
       <c r="P189" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q189" s="10"/>
       <c r="R189" s="10"/>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>371</v>
@@ -12334,23 +12321,23 @@
         <v>94</v>
       </c>
       <c r="P190" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q190" s="10"/>
       <c r="R190" s="10"/>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E191" s="10" t="s">
         <v>441</v>
@@ -12382,7 +12369,7 @@
         <v>94</v>
       </c>
       <c r="P191" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q191" s="10"/>
       <c r="R191" s="10"/>
@@ -12437,7 +12424,7 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>371</v>
@@ -12485,7 +12472,7 @@
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" s="26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>371</v>
@@ -12533,20 +12520,18 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" s="26" t="s">
-        <v>476</v>
+        <v>379</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>523</v>
+        <v>180</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>441</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E195" s="10"/>
       <c r="F195" s="10" t="s">
         <v>350</v>
       </c>
@@ -12565,23 +12550,23 @@
         <v>2</v>
       </c>
       <c r="M195" s="10" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="N195" s="10" t="s">
-        <v>581</v>
+        <v>107</v>
       </c>
       <c r="O195" s="10" t="s">
-        <v>582</v>
+        <v>199</v>
       </c>
       <c r="P195" s="10" t="s">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="Q195" s="10"/>
       <c r="R195" s="10"/>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" s="26" t="s">
-        <v>379</v>
+        <v>450</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>371</v>
@@ -12627,16 +12612,16 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" s="26" t="s">
-        <v>451</v>
+        <v>238</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="E197" s="10"/>
       <c r="F197" s="10" t="s">
@@ -12652,7 +12637,7 @@
         <v>2</v>
       </c>
       <c r="J197" s="17"/>
-      <c r="K197" s="26"/>
+      <c r="K197" s="10"/>
       <c r="L197" s="17">
         <v>2</v>
       </c>
@@ -12660,29 +12645,31 @@
         <v>73</v>
       </c>
       <c r="N197" s="10" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="O197" s="10" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="P197" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q197" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="Q197" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="R197" s="10"/>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" s="26" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E198" s="10"/>
       <c r="F198" s="10" t="s">
@@ -12703,304 +12690,112 @@
         <v>2</v>
       </c>
       <c r="M198" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N198" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O198" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P198" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q198" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R198" s="10"/>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A199" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H199" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I199" s="13"/>
+      <c r="J199" s="13"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="13"/>
+      <c r="M199" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O198" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P198" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q198" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R198" s="10"/>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A199" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="B199" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D199" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="G199" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="H199" s="17" t="s">
+      <c r="N199" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="O199" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P199" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q199" s="39"/>
+      <c r="R199" s="39"/>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A200" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H200" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="I199" s="17">
-        <v>2</v>
-      </c>
-      <c r="J199" s="17"/>
-      <c r="K199" s="10"/>
-      <c r="L199" s="17">
-        <v>2</v>
-      </c>
-      <c r="M199" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N199" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O199" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P199" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q199" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R199" s="10"/>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A200" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H200" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="I200" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="J200" s="16"/>
-      <c r="K200" s="4"/>
-      <c r="L200" s="15"/>
-      <c r="M200" s="4" t="s">
+      <c r="I200" s="13"/>
+      <c r="J200" s="13"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="13"/>
+      <c r="M200" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N200" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="O200" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="P200" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q200" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="R200" s="4"/>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A201" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F201" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H201" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="I201" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="J201" s="16"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="15"/>
-      <c r="M201" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N201" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="O201" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P201" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q201" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R201" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A202" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H202" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="I202" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="J202" s="16"/>
-      <c r="K202" s="4"/>
-      <c r="L202" s="15"/>
-      <c r="M202" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N202" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="O202" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="P202" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q202" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="R202" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A203" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G203" s="7" t="s">
+      <c r="N200" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H203" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="I203" s="13"/>
-      <c r="J203" s="13"/>
-      <c r="K203" s="7"/>
-      <c r="L203" s="13"/>
-      <c r="M203" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N203" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="O203" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="P203" s="7" t="s">
+      <c r="O200" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="Q203" s="41"/>
-      <c r="R203" s="41"/>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A204" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H204" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="I204" s="13"/>
-      <c r="J204" s="13"/>
-      <c r="K204" s="7"/>
-      <c r="L204" s="13"/>
-      <c r="M204" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N204" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="O204" s="7" t="s">
+      <c r="P200" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="P204" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q204" s="41"/>
-      <c r="R204" s="41"/>
+      <c r="Q200" s="39"/>
+      <c r="R200" s="39"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R204">
-    <sortCondition ref="B2:B204"/>
-    <sortCondition ref="C2:C204"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R200">
+    <sortCondition ref="B2:B200"/>
+    <sortCondition ref="C2:C200"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13015,38 +12810,261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:P2"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E33:F34"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="D2" s="31" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="F5" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" s="17">
+        <v>2</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="17">
+        <v>2</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
